--- a/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.622006266477911</v>
+        <v>3.70994886518065</v>
       </c>
       <c r="C2">
-        <v>1.201025939921919</v>
+        <v>0.4628425252093393</v>
       </c>
       <c r="D2">
-        <v>0.01106327762652626</v>
+        <v>0.003053119135778104</v>
       </c>
       <c r="E2">
-        <v>0.1123712106206654</v>
+        <v>0.01847445122001234</v>
       </c>
       <c r="F2">
-        <v>2.629167589886833</v>
+        <v>2.996879540999345</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.28460196875119</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09790625943459474</v>
+        <v>0.06381304024840517</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8781264285169499</v>
       </c>
       <c r="L2">
-        <v>0.3686607690689883</v>
+        <v>0.2709050354930156</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.780260014003417</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.119077438882073</v>
+        <v>3.281572373079825</v>
       </c>
       <c r="C3">
-        <v>1.031611871862992</v>
+        <v>0.3986369112030559</v>
       </c>
       <c r="D3">
-        <v>0.01146462547989202</v>
+        <v>0.002568867504711747</v>
       </c>
       <c r="E3">
-        <v>0.09721789507790035</v>
+        <v>0.01846813112988022</v>
       </c>
       <c r="F3">
-        <v>2.329795302649643</v>
+        <v>2.815740604375691</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.162908883177948</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08535994294869198</v>
+        <v>0.06418154301720769</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7709134338683299</v>
       </c>
       <c r="L3">
-        <v>0.317005765731615</v>
+        <v>0.2448298913598848</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.812926827531939</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.815393998084346</v>
+        <v>3.024558631601678</v>
       </c>
       <c r="C4">
-        <v>0.9295845995388845</v>
+        <v>0.3599124497801824</v>
       </c>
       <c r="D4">
-        <v>0.01176438493997978</v>
+        <v>0.002297713020009695</v>
       </c>
       <c r="E4">
-        <v>0.08815265669760208</v>
+        <v>0.01847629525243466</v>
       </c>
       <c r="F4">
-        <v>2.153074308725323</v>
+        <v>2.710098714037215</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.091906467920694</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07791263153637473</v>
+        <v>0.06447283629469602</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.706506396204702</v>
       </c>
       <c r="L4">
-        <v>0.2859927836154341</v>
+        <v>0.2292452741744739</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.835153441417447</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.692720884486164</v>
+        <v>2.921170875144696</v>
       </c>
       <c r="C5">
-        <v>0.8884274821922986</v>
+        <v>0.3442823684962093</v>
       </c>
       <c r="D5">
-        <v>0.01189847911020969</v>
+        <v>0.002192837690742522</v>
       </c>
       <c r="E5">
-        <v>0.08451031500581507</v>
+        <v>0.0184825720189723</v>
       </c>
       <c r="F5">
-        <v>2.082628620114235</v>
+        <v>2.668335402315336</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.063802033637003</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07493379510346543</v>
+        <v>0.06460729407911536</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6805764689894289</v>
       </c>
       <c r="L5">
-        <v>0.2735052407573875</v>
+        <v>0.2229914979865981</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.844728614052173</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.672410729024023</v>
+        <v>2.904080262287266</v>
       </c>
       <c r="C6">
-        <v>0.8816165091026562</v>
+        <v>0.3416954002992441</v>
       </c>
       <c r="D6">
-        <v>0.01192142670307739</v>
+        <v>0.002175736596260691</v>
       </c>
       <c r="E6">
-        <v>0.08390841060535692</v>
+        <v>0.01848379028781899</v>
       </c>
       <c r="F6">
-        <v>2.071020098420519</v>
+        <v>2.661475136549427</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.059182542904935</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07444231431278681</v>
+        <v>0.06463055557790653</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6762888008877823</v>
       </c>
       <c r="L6">
-        <v>0.2714400638019541</v>
+        <v>0.2219586517797012</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.846349062033283</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.813735468464131</v>
+        <v>3.023159059312547</v>
       </c>
       <c r="C7">
-        <v>0.9290279419195429</v>
+        <v>0.3597010794301241</v>
       </c>
       <c r="D7">
-        <v>0.01176614685651955</v>
+        <v>0.002296277066905716</v>
       </c>
       <c r="E7">
-        <v>0.08810333532087711</v>
+        <v>0.01847636805735497</v>
       </c>
       <c r="F7">
-        <v>2.152118166359244</v>
+        <v>2.709530416214335</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.091524213995456</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07787224164538387</v>
+        <v>0.0644745866099079</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.706155466641448</v>
       </c>
       <c r="L7">
-        <v>0.2858237957636618</v>
+        <v>0.2291605530171665</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.835280514565468</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.44740309023166</v>
+        <v>3.56089365143788</v>
       </c>
       <c r="C8">
-        <v>1.142146294245549</v>
+        <v>0.4405437338403999</v>
       </c>
       <c r="D8">
-        <v>0.011189652241411</v>
+        <v>0.002880105417848</v>
       </c>
       <c r="E8">
-        <v>0.1070914931023168</v>
+        <v>0.01846972185339935</v>
       </c>
       <c r="F8">
-        <v>2.524335279511575</v>
+        <v>2.933192021370559</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.241803813504319</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09352176916140209</v>
+        <v>0.0639262260632627</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8408382862087223</v>
       </c>
       <c r="L8">
-        <v>0.3506873525205592</v>
+        <v>0.2618197232145008</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.791055847781678</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.741271684541118</v>
+        <v>4.671336060744409</v>
       </c>
       <c r="C9">
-        <v>1.580100778380995</v>
+        <v>0.6058789894787822</v>
       </c>
       <c r="D9">
-        <v>0.01055919399830074</v>
+        <v>0.004281972322642602</v>
       </c>
       <c r="E9">
-        <v>0.1466488830544748</v>
+        <v>0.01855634683059293</v>
       </c>
       <c r="F9">
-        <v>3.321552933637008</v>
+        <v>3.421873913162898</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.571391863716073</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1266763018919939</v>
+        <v>0.0633968047414939</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.118305212823671</v>
       </c>
       <c r="L9">
-        <v>0.4848257400781861</v>
+        <v>0.3297412355123726</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.722932837287672</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.74043148722393</v>
+        <v>5.534256725870648</v>
       </c>
       <c r="C10">
-        <v>1.920941575470181</v>
+        <v>0.7334938184179123</v>
       </c>
       <c r="D10">
-        <v>0.0105283842762276</v>
+        <v>0.00554807494751941</v>
       </c>
       <c r="E10">
-        <v>0.1778177340954912</v>
+        <v>0.01868738866998054</v>
       </c>
       <c r="F10">
-        <v>3.966118606866445</v>
+        <v>3.820581342070653</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.843533723961457</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1532421192251832</v>
+        <v>0.06338739245306613</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.333558392757951</v>
       </c>
       <c r="L10">
-        <v>0.5898203166519167</v>
+        <v>0.3827920082870975</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.686406166457004</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.210237284470054</v>
+        <v>5.94040995482851</v>
       </c>
       <c r="C11">
-        <v>2.082021717047098</v>
+        <v>0.7934039901915355</v>
       </c>
       <c r="D11">
-        <v>0.01064425179935924</v>
+        <v>0.006196807747949507</v>
       </c>
       <c r="E11">
-        <v>0.1926427746992161</v>
+        <v>0.01876343572585171</v>
       </c>
       <c r="F11">
-        <v>4.276977421442268</v>
+        <v>4.012952191621252</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.976224503560616</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1659993101892994</v>
+        <v>0.06347762050138783</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.434803737875043</v>
       </c>
       <c r="L11">
-        <v>0.639588312504209</v>
+        <v>0.4078133672979618</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.673296089979132</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.390816572322819</v>
+        <v>6.096491656454475</v>
       </c>
       <c r="C12">
-        <v>2.144077404786685</v>
+        <v>0.816408215865124</v>
       </c>
       <c r="D12">
-        <v>0.01071058536986413</v>
+        <v>0.006455090705324906</v>
       </c>
       <c r="E12">
-        <v>0.1983686609354862</v>
+        <v>0.01879477624834713</v>
       </c>
       <c r="F12">
-        <v>4.397721210955524</v>
+        <v>4.087609676603051</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.027990895067163</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1709464115106591</v>
+        <v>0.06352655032106824</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.473702853722159</v>
       </c>
       <c r="L12">
-        <v>0.6587839955970907</v>
+        <v>0.4174356804486052</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.668891749382254</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.351798146112969</v>
+        <v>6.062769613149953</v>
       </c>
       <c r="C13">
-        <v>2.130662116626411</v>
+        <v>0.811438840194711</v>
       </c>
       <c r="D13">
-        <v>0.01069523181982746</v>
+        <v>0.00639886526538902</v>
       </c>
       <c r="E13">
-        <v>0.1971301685659199</v>
+        <v>0.018787910215325</v>
       </c>
       <c r="F13">
-        <v>4.371573404973674</v>
+        <v>4.071446314919257</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.016770203788482</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1698754449631643</v>
+        <v>0.06351533547002575</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.465298919818068</v>
       </c>
       <c r="L13">
-        <v>0.6546332156499304</v>
+        <v>0.4153564534009035</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.669814411735246</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.225037023122638</v>
+        <v>5.953203175112606</v>
       </c>
       <c r="C14">
-        <v>2.087104648579214</v>
+        <v>0.7952898828787625</v>
       </c>
       <c r="D14">
-        <v>0.01064923458679701</v>
+        <v>0.006217790243654875</v>
       </c>
       <c r="E14">
-        <v>0.1931114814212762</v>
+        <v>0.01876596202508996</v>
       </c>
       <c r="F14">
-        <v>4.286847261785056</v>
+        <v>4.0190565873894</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.980451373383275</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1664038568701258</v>
+        <v>0.06348134284532492</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.437992266854579</v>
       </c>
       <c r="L14">
-        <v>0.64116015505234</v>
+        <v>0.4086019278604596</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.672922166467558</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.147756012103912</v>
+        <v>5.886397900838972</v>
       </c>
       <c r="C15">
-        <v>2.060568511637143</v>
+        <v>0.7854411536822568</v>
       </c>
       <c r="D15">
-        <v>0.01062410994503438</v>
+        <v>0.006108590420081939</v>
       </c>
       <c r="E15">
-        <v>0.1906651245130249</v>
+        <v>0.01875285515814973</v>
       </c>
       <c r="F15">
-        <v>4.235360517757329</v>
+        <v>3.987209544083186</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.958410775038885</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1642931870465425</v>
+        <v>0.06346248136931365</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.421341655096697</v>
       </c>
       <c r="L15">
-        <v>0.6329550555354118</v>
+        <v>0.4044843898423665</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.67490050320211</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.710074936739147</v>
+        <v>5.508014128474315</v>
       </c>
       <c r="C16">
-        <v>1.910551502546184</v>
+        <v>0.7296200771876897</v>
       </c>
       <c r="D16">
-        <v>0.01052373171140886</v>
+        <v>0.00550731963299711</v>
       </c>
       <c r="E16">
-        <v>0.1768634379113934</v>
+        <v>0.01868276424967252</v>
       </c>
       <c r="F16">
-        <v>3.946198316319908</v>
+        <v>3.808249647816922</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.835060613527858</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1524235275808934</v>
+        <v>0.06338349428658674</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.327015404272146</v>
       </c>
       <c r="L16">
-        <v>0.5866132051054791</v>
+        <v>0.3811762886054169</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.687338101422952</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.445799523982828</v>
+        <v>5.279589659191743</v>
       </c>
       <c r="C17">
-        <v>1.82019080232368</v>
+        <v>0.6958851247853488</v>
       </c>
       <c r="D17">
-        <v>0.01049787880588582</v>
+        <v>0.005158526566692245</v>
       </c>
       <c r="E17">
-        <v>0.1685745801311995</v>
+        <v>0.01864409427015978</v>
       </c>
       <c r="F17">
-        <v>3.773648626180403</v>
+        <v>3.701433762632888</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.761825062438561</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1453269111193478</v>
+        <v>0.06336003059913864</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.270055622984842</v>
       </c>
       <c r="L17">
-        <v>0.5587378784889836</v>
+        <v>0.3671181269584167</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.695903592932481</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.295200848944489</v>
+        <v>5.149464846982369</v>
       </c>
       <c r="C18">
-        <v>1.768772033528762</v>
+        <v>0.6766531076490025</v>
       </c>
       <c r="D18">
-        <v>0.01049496827321761</v>
+        <v>0.004964612020318171</v>
       </c>
       <c r="E18">
-        <v>0.1638665515102389</v>
+        <v>0.01862338697025567</v>
       </c>
       <c r="F18">
-        <v>3.676029235737445</v>
+        <v>3.641015713001934</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.720522234582077</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1413070463978343</v>
+        <v>0.06335535191549369</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.237601395963466</v>
       </c>
       <c r="L18">
-        <v>0.5428892464667214</v>
+        <v>0.3591145415498289</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.701156467426586</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.244438944446813</v>
+        <v>5.105613877511189</v>
       </c>
       <c r="C19">
-        <v>1.751452450205136</v>
+        <v>0.6701694976963495</v>
       </c>
       <c r="D19">
-        <v>0.01049593364381352</v>
+        <v>0.004900046824403148</v>
       </c>
       <c r="E19">
-        <v>0.1622821865256441</v>
+        <v>0.01861663439704397</v>
       </c>
       <c r="F19">
-        <v>3.643242762822013</v>
+        <v>3.620727828558842</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.706672038173622</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1399560838236802</v>
+        <v>0.06335524889647814</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.226663466522993</v>
       </c>
       <c r="L19">
-        <v>0.5375531699062535</v>
+        <v>0.3564182465505041</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.702989449835641</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.473783437469592</v>
+        <v>5.303773336707991</v>
       </c>
       <c r="C20">
-        <v>1.829751208240964</v>
+        <v>0.6994581822756061</v>
       </c>
       <c r="D20">
-        <v>0.01049936814849417</v>
+        <v>0.005194948037559044</v>
       </c>
       <c r="E20">
-        <v>0.1694506574777463</v>
+        <v>0.01864805071486142</v>
       </c>
       <c r="F20">
-        <v>3.7918451995954</v>
+        <v>3.712697405764629</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.769534602269246</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1460758187981597</v>
+        <v>0.06336160782427314</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.276086705510309</v>
       </c>
       <c r="L20">
-        <v>0.5616857484028728</v>
+        <v>0.3686059916400808</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.694957637344459</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.262193039470333</v>
+        <v>5.985320803620709</v>
       </c>
       <c r="C21">
-        <v>2.099868116570008</v>
+        <v>0.8000241670368666</v>
       </c>
       <c r="D21">
-        <v>0.01066210159399361</v>
+        <v>0.006270614833796984</v>
       </c>
       <c r="E21">
-        <v>0.1942886595486826</v>
+        <v>0.01877233813952373</v>
       </c>
       <c r="F21">
-        <v>4.311646837584163</v>
+        <v>4.03439358667751</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.991075726981606</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1674202181767477</v>
+        <v>0.06349091652314343</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.445996996457453</v>
       </c>
       <c r="L21">
-        <v>0.6451074868871274</v>
+        <v>0.4105817299066388</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.671993654871315</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.793337947724353</v>
+        <v>6.444226974694288</v>
       </c>
       <c r="C22">
-        <v>2.282688656374035</v>
+        <v>0.8676296328028741</v>
       </c>
       <c r="D22">
-        <v>0.01090171324120703</v>
+        <v>0.007048469766040455</v>
       </c>
       <c r="E22">
-        <v>0.2111858451858097</v>
+        <v>0.01886849662311807</v>
       </c>
       <c r="F22">
-        <v>4.669315046948185</v>
+        <v>4.255326217618546</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.144866358606748</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.182059345441921</v>
+        <v>0.06366213784783525</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.560351996599877</v>
       </c>
       <c r="L22">
-        <v>0.7017033452418318</v>
+        <v>0.4388847836496268</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.660282455228881</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.508222507615983</v>
+        <v>6.197947987714315</v>
       </c>
       <c r="C23">
-        <v>2.18446614535884</v>
+        <v>0.8313566990997003</v>
       </c>
       <c r="D23">
-        <v>0.01076017156112385</v>
+        <v>0.006625655546642406</v>
       </c>
       <c r="E23">
-        <v>0.202099494647463</v>
+        <v>0.01881574152399956</v>
       </c>
       <c r="F23">
-        <v>4.476591882172897</v>
+        <v>4.136348093595274</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.061870416367412</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1741756458166499</v>
+        <v>0.0635623895925832</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.498985819704458</v>
       </c>
       <c r="L23">
-        <v>0.6712839091152674</v>
+        <v>0.4236921741152457</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.666210593376263</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.461127781184189</v>
+        <v>5.292836183938107</v>
       </c>
       <c r="C24">
-        <v>1.825427309316353</v>
+        <v>0.6978423000603584</v>
       </c>
       <c r="D24">
-        <v>0.01049865786226079</v>
+        <v>0.005178461456498695</v>
       </c>
       <c r="E24">
-        <v>0.1690544056768957</v>
+        <v>0.01864625727055902</v>
       </c>
       <c r="F24">
-        <v>3.783613637932973</v>
+        <v>3.707602040321831</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.766046641135532</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1457370519426</v>
+        <v>0.06336086740338231</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.273359147383118</v>
       </c>
       <c r="L24">
-        <v>0.5603524687380812</v>
+        <v>0.3679330845151725</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.695384284922596</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.384126051831799</v>
+        <v>4.363694974239706</v>
       </c>
       <c r="C25">
-        <v>1.458831743153439</v>
+        <v>0.5602316520374586</v>
       </c>
       <c r="D25">
-        <v>0.01066435566699475</v>
+        <v>0.003867702339304557</v>
       </c>
       <c r="E25">
-        <v>0.1356338326064019</v>
+        <v>0.01852161551065024</v>
       </c>
       <c r="F25">
-        <v>3.096996674921655</v>
+        <v>3.283432172499545</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.477670521473783</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1173767919474571</v>
+        <v>0.06347708407215435</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.041500303618662</v>
       </c>
       <c r="L25">
-        <v>0.447586166948085</v>
+        <v>0.3108760407414195</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.739161238216681</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.70994886518065</v>
+        <v>2.519370042833089</v>
       </c>
       <c r="C2">
-        <v>0.4628425252093393</v>
+        <v>0.5946879216382683</v>
       </c>
       <c r="D2">
-        <v>0.003053119135778104</v>
+        <v>0.1191137582959385</v>
       </c>
       <c r="E2">
-        <v>0.01847445122001234</v>
+        <v>0.07573213211886198</v>
       </c>
       <c r="F2">
-        <v>2.996879540999345</v>
+        <v>0.6914997279594317</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06381304024840517</v>
+        <v>0.06890489373360964</v>
       </c>
       <c r="K2">
-        <v>0.8781264285169499</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2709050354930156</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6926142481296154</v>
       </c>
       <c r="N2">
-        <v>1.780260014003417</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.581093091517204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.281572373079825</v>
+        <v>2.18968814868947</v>
       </c>
       <c r="C3">
-        <v>0.3986369112030559</v>
+        <v>0.521583130496964</v>
       </c>
       <c r="D3">
-        <v>0.002568867504711747</v>
+        <v>0.1085335567056944</v>
       </c>
       <c r="E3">
-        <v>0.01846813112988022</v>
+        <v>0.0718239287238589</v>
       </c>
       <c r="F3">
-        <v>2.815740604375691</v>
+        <v>0.6638889197853999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06418154301720769</v>
+        <v>0.06805191230201046</v>
       </c>
       <c r="K3">
-        <v>0.7709134338683299</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2448298913598848</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6027630199114</v>
       </c>
       <c r="N3">
-        <v>1.812926827531939</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.534734918173115</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.024558631601678</v>
+        <v>1.987714415538107</v>
       </c>
       <c r="C4">
-        <v>0.3599124497801824</v>
+        <v>0.4767232674944069</v>
       </c>
       <c r="D4">
-        <v>0.002297713020009695</v>
+        <v>0.1021139505360722</v>
       </c>
       <c r="E4">
-        <v>0.01847629525243466</v>
+        <v>0.06953126151828215</v>
       </c>
       <c r="F4">
-        <v>2.710098714037215</v>
+        <v>0.648809065508793</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06447283629469602</v>
+        <v>0.06769006955765278</v>
       </c>
       <c r="K4">
-        <v>0.706506396204702</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2292452741744739</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5478173726481685</v>
       </c>
       <c r="N4">
-        <v>1.835153441417447</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.51146219191898</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.921170875144696</v>
+        <v>1.905487176587826</v>
       </c>
       <c r="C5">
-        <v>0.3442823684962093</v>
+        <v>0.4584427083856326</v>
       </c>
       <c r="D5">
-        <v>0.002192837690742522</v>
+        <v>0.09951579266492416</v>
       </c>
       <c r="E5">
-        <v>0.0184825720189723</v>
+        <v>0.06862253814433572</v>
       </c>
       <c r="F5">
-        <v>2.668335402315336</v>
+        <v>0.6431088689680351</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06460729407911536</v>
+        <v>0.06758144702434876</v>
       </c>
       <c r="K5">
-        <v>0.6805764689894289</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2229914979865981</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.525472209719041</v>
       </c>
       <c r="N5">
-        <v>1.844728614052173</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.503210526127191</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.904080262287266</v>
+        <v>1.891837180025647</v>
       </c>
       <c r="C6">
-        <v>0.3416954002992441</v>
+        <v>0.4554070656931231</v>
       </c>
       <c r="D6">
-        <v>0.002175736596260691</v>
+        <v>0.0990854114137889</v>
       </c>
       <c r="E6">
-        <v>0.01848379028781899</v>
+        <v>0.06847315095381745</v>
       </c>
       <c r="F6">
-        <v>2.661475136549427</v>
+        <v>0.6421884943366791</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06463055557790653</v>
+        <v>0.06756570265509865</v>
       </c>
       <c r="K6">
-        <v>0.6762888008877823</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2219586517797012</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5217642737298434</v>
       </c>
       <c r="N6">
-        <v>1.846349062033283</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.50191269586972</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.023159059312547</v>
+        <v>1.986605196201253</v>
       </c>
       <c r="C7">
-        <v>0.3597010794301241</v>
+        <v>0.4764767369633773</v>
       </c>
       <c r="D7">
-        <v>0.002296277066905716</v>
+        <v>0.1020788402456319</v>
       </c>
       <c r="E7">
-        <v>0.01847636805735497</v>
+        <v>0.06951890440203456</v>
       </c>
       <c r="F7">
-        <v>2.709530416214335</v>
+        <v>0.6487304224665422</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0644745866099079</v>
+        <v>0.06768844981751343</v>
       </c>
       <c r="K7">
-        <v>0.706155466641448</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2291605530171665</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5475158466225878</v>
       </c>
       <c r="N7">
-        <v>1.835280514565468</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.511346012021647</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.56089365143788</v>
+        <v>2.40557993797421</v>
       </c>
       <c r="C8">
-        <v>0.4405437338403999</v>
+        <v>0.5694717290188862</v>
       </c>
       <c r="D8">
-        <v>0.002880105417848</v>
+        <v>0.1154489183741347</v>
       </c>
       <c r="E8">
-        <v>0.01846972185339935</v>
+        <v>0.07436154494191882</v>
       </c>
       <c r="F8">
-        <v>2.933192021370559</v>
+        <v>0.6815745646713651</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0639262260632627</v>
+        <v>0.06857602295417564</v>
       </c>
       <c r="K8">
-        <v>0.8408382862087223</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2618197232145008</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6615806039319381</v>
       </c>
       <c r="N8">
-        <v>1.791055847781678</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.563985961044494</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.671336060744409</v>
+        <v>3.2325179592724</v>
       </c>
       <c r="C9">
-        <v>0.6058789894787822</v>
+        <v>0.7523754464352521</v>
       </c>
       <c r="D9">
-        <v>0.004281972322642602</v>
+        <v>0.1423448285839726</v>
       </c>
       <c r="E9">
-        <v>0.01855634683059293</v>
+        <v>0.08477182587864007</v>
       </c>
       <c r="F9">
-        <v>3.421873913162898</v>
+        <v>0.7620998909640946</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0633968047414939</v>
+        <v>0.07169124678360816</v>
       </c>
       <c r="K9">
-        <v>1.118305212823671</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3297412355123726</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.8875549104946288</v>
       </c>
       <c r="N9">
-        <v>1.722932837287672</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.711924030125061</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.534256725870648</v>
+        <v>3.845990028610061</v>
       </c>
       <c r="C10">
-        <v>0.7334938184179123</v>
+        <v>0.8875932986526038</v>
       </c>
       <c r="D10">
-        <v>0.00554807494751941</v>
+        <v>0.1626227102580202</v>
       </c>
       <c r="E10">
-        <v>0.01868738866998054</v>
+        <v>0.09307464101962637</v>
       </c>
       <c r="F10">
-        <v>3.820581342070653</v>
+        <v>0.8329581521598612</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06338739245306613</v>
+        <v>0.07495232381051409</v>
       </c>
       <c r="K10">
-        <v>1.333558392757951</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3827920082870975</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.055773545523252</v>
       </c>
       <c r="N10">
-        <v>1.686406166457004</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.853118467185993</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.94040995482851</v>
+        <v>4.127013454355392</v>
       </c>
       <c r="C11">
-        <v>0.7934039901915355</v>
+        <v>0.9494148291869351</v>
       </c>
       <c r="D11">
-        <v>0.006196807747949507</v>
+        <v>0.17198537753697</v>
       </c>
       <c r="E11">
-        <v>0.01876343572585171</v>
+        <v>0.0970173302699493</v>
       </c>
       <c r="F11">
-        <v>4.012952191621252</v>
+        <v>0.8681847180163516</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06347762050138783</v>
+        <v>0.07667939740080953</v>
       </c>
       <c r="K11">
-        <v>1.434803737875043</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4078133672979618</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.132971805125038</v>
       </c>
       <c r="N11">
-        <v>1.673296089979132</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.925677726602686</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.096491656454475</v>
+        <v>4.233768899644929</v>
       </c>
       <c r="C12">
-        <v>0.816408215865124</v>
+        <v>0.9728808807082316</v>
       </c>
       <c r="D12">
-        <v>0.006455090705324906</v>
+        <v>0.1755529067589094</v>
       </c>
       <c r="E12">
-        <v>0.01879477624834713</v>
+        <v>0.09853626064975174</v>
       </c>
       <c r="F12">
-        <v>4.087609676603051</v>
+        <v>0.8819954855406138</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06352655032106824</v>
+        <v>0.07737136804222189</v>
       </c>
       <c r="K12">
-        <v>1.473702853722159</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4174356804486052</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.162319239424932</v>
       </c>
       <c r="N12">
-        <v>1.668891749382254</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.954467261010024</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.062769613149953</v>
+        <v>4.210761206843529</v>
       </c>
       <c r="C13">
-        <v>0.811438840194711</v>
+        <v>0.9678243893968386</v>
       </c>
       <c r="D13">
-        <v>0.00639886526538902</v>
+        <v>0.1747835556579957</v>
       </c>
       <c r="E13">
-        <v>0.018787910215325</v>
+        <v>0.09820794391207244</v>
       </c>
       <c r="F13">
-        <v>4.071446314919257</v>
+        <v>0.87899944425142</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06351533547002575</v>
+        <v>0.07722060190361191</v>
       </c>
       <c r="K13">
-        <v>1.465298919818068</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4153564534009035</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.155993380233681</v>
       </c>
       <c r="N13">
-        <v>1.669814411735246</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.948206589381613</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.953203175112606</v>
+        <v>4.135789169555267</v>
       </c>
       <c r="C14">
-        <v>0.7952898828787625</v>
+        <v>0.9513442150957303</v>
       </c>
       <c r="D14">
-        <v>0.006217790243654875</v>
+        <v>0.1722784241984385</v>
       </c>
       <c r="E14">
-        <v>0.01876596202508996</v>
+        <v>0.09714176153484644</v>
       </c>
       <c r="F14">
-        <v>4.0190565873894</v>
+        <v>0.8693112477777021</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06348134284532492</v>
+        <v>0.07673554767512059</v>
       </c>
       <c r="K14">
-        <v>1.437992266854579</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4086019278604596</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.135383845658637</v>
       </c>
       <c r="N14">
-        <v>1.672922166467558</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.928019251852362</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.886397900838972</v>
+        <v>4.089912431725509</v>
       </c>
       <c r="C15">
-        <v>0.7854411536822568</v>
+        <v>0.941257213041041</v>
       </c>
       <c r="D15">
-        <v>0.006108590420081939</v>
+        <v>0.1707469047758536</v>
       </c>
       <c r="E15">
-        <v>0.01875285515814973</v>
+        <v>0.09649213449671379</v>
       </c>
       <c r="F15">
-        <v>3.987209544083186</v>
+        <v>0.8634395867354954</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06346248136931365</v>
+        <v>0.07644347344264446</v>
       </c>
       <c r="K15">
-        <v>1.421341655096697</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4044843898423665</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.12277530633088</v>
       </c>
       <c r="N15">
-        <v>1.67490050320211</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.915828488436972</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.508014128474315</v>
+        <v>3.827668549156272</v>
       </c>
       <c r="C16">
-        <v>0.7296200771876897</v>
+        <v>0.883560274284946</v>
       </c>
       <c r="D16">
-        <v>0.00550731963299711</v>
+        <v>0.1620138039577199</v>
       </c>
       <c r="E16">
-        <v>0.01868276424967252</v>
+        <v>0.09282048636127271</v>
       </c>
       <c r="F16">
-        <v>3.808249647816922</v>
+        <v>0.8307196538426211</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06338349428658674</v>
+        <v>0.07484460286443806</v>
       </c>
       <c r="K16">
-        <v>1.327015404272146</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3811762886054169</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.050743464023753</v>
       </c>
       <c r="N16">
-        <v>1.687338101422952</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.848553784549694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.279589659191743</v>
+        <v>3.667329573450218</v>
       </c>
       <c r="C17">
-        <v>0.6958851247853488</v>
+        <v>0.8482520291963169</v>
       </c>
       <c r="D17">
-        <v>0.005158526566692245</v>
+        <v>0.1566932404030013</v>
       </c>
       <c r="E17">
-        <v>0.01864409427015978</v>
+        <v>0.0906119254298865</v>
       </c>
       <c r="F17">
-        <v>3.701433762632888</v>
+        <v>0.8114416032349681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06336003059913864</v>
+        <v>0.07392815336318037</v>
       </c>
       <c r="K17">
-        <v>1.270055622984842</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3671181269584167</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.006738794498716</v>
       </c>
       <c r="N17">
-        <v>1.695903592932481</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.809495245698145</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.149464846982369</v>
+        <v>3.575286842958462</v>
       </c>
       <c r="C18">
-        <v>0.6766531076490025</v>
+        <v>0.8279721493913144</v>
       </c>
       <c r="D18">
-        <v>0.004964612020318171</v>
+        <v>0.1536458534302056</v>
       </c>
       <c r="E18">
-        <v>0.01862338697025567</v>
+        <v>0.089357081036745</v>
       </c>
       <c r="F18">
-        <v>3.641015713001934</v>
+        <v>0.8006324367153894</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06335535191549369</v>
+        <v>0.07342377462161664</v>
       </c>
       <c r="K18">
-        <v>1.237601395963466</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3591145415498289</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9814908760896088</v>
       </c>
       <c r="N18">
-        <v>1.701156467426586</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.787806354144777</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.105613877511189</v>
+        <v>3.544152006640672</v>
       </c>
       <c r="C19">
-        <v>0.6701694976963495</v>
+        <v>0.8211103053378679</v>
       </c>
       <c r="D19">
-        <v>0.004900046824403148</v>
+        <v>0.1526162045381199</v>
       </c>
       <c r="E19">
-        <v>0.01861663439704397</v>
+        <v>0.08893480671873633</v>
       </c>
       <c r="F19">
-        <v>3.620727828558842</v>
+        <v>0.7970193756428756</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06335524889647814</v>
+        <v>0.07325682040015025</v>
       </c>
       <c r="K19">
-        <v>1.226663466522993</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3564182465505041</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.9729525852349283</v>
       </c>
       <c r="N19">
-        <v>1.702989449835641</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.780592884286506</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.303773336707991</v>
+        <v>3.684378901745106</v>
       </c>
       <c r="C20">
-        <v>0.6994581822756061</v>
+        <v>0.8520076273647703</v>
       </c>
       <c r="D20">
-        <v>0.005194948037559044</v>
+        <v>0.157258276937128</v>
       </c>
       <c r="E20">
-        <v>0.01864805071486142</v>
+        <v>0.09084541567995075</v>
       </c>
       <c r="F20">
-        <v>3.712697405764629</v>
+        <v>0.8134646176958995</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06336160782427314</v>
+        <v>0.07402333708210307</v>
       </c>
       <c r="K20">
-        <v>1.276086705510309</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3686059916400808</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.011416588938246</v>
       </c>
       <c r="N20">
-        <v>1.694957637344459</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.81357191998552</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.985320803620709</v>
+        <v>4.157800620226453</v>
       </c>
       <c r="C21">
-        <v>0.8000241670368666</v>
+        <v>0.9561832409962392</v>
       </c>
       <c r="D21">
-        <v>0.006270614833796984</v>
+        <v>0.1730136238738282</v>
       </c>
       <c r="E21">
-        <v>0.01877233813952373</v>
+        <v>0.09745420418225947</v>
       </c>
       <c r="F21">
-        <v>4.03439358667751</v>
+        <v>0.8721437742325975</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06349091652314343</v>
+        <v>0.07687696488310536</v>
       </c>
       <c r="K21">
-        <v>1.445996996457453</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4105817299066388</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.141434124465746</v>
       </c>
       <c r="N21">
-        <v>1.671993654871315</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.93391216397589</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.444226974694288</v>
+        <v>4.469209323825282</v>
       </c>
       <c r="C22">
-        <v>0.8676296328028741</v>
+        <v>1.024597810621799</v>
       </c>
       <c r="D22">
-        <v>0.007048469766040455</v>
+        <v>0.1834405802721193</v>
       </c>
       <c r="E22">
-        <v>0.01886849662311807</v>
+        <v>0.1019256034676665</v>
       </c>
       <c r="F22">
-        <v>4.255326217618546</v>
+        <v>0.9132621676744463</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06366213784783525</v>
+        <v>0.07896480822751073</v>
       </c>
       <c r="K22">
-        <v>1.560351996599877</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4388847836496268</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.22708235803907</v>
       </c>
       <c r="N22">
-        <v>1.660282455228881</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.020274756156795</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.197947987714315</v>
+        <v>4.302801354421035</v>
       </c>
       <c r="C23">
-        <v>0.8313566990997003</v>
+        <v>0.9880496037054627</v>
       </c>
       <c r="D23">
-        <v>0.006625655546642406</v>
+        <v>0.1778628456755342</v>
       </c>
       <c r="E23">
-        <v>0.01881574152399956</v>
+        <v>0.09952447349305515</v>
       </c>
       <c r="F23">
-        <v>4.136348093595274</v>
+        <v>0.8910488117226407</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0635623895925832</v>
+        <v>0.07782906303602033</v>
       </c>
       <c r="K23">
-        <v>1.498985819704458</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4236921741152457</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.181302545294656</v>
       </c>
       <c r="N23">
-        <v>1.666210593376263</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.973435017620517</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.292836183938107</v>
+        <v>3.676670473973843</v>
       </c>
       <c r="C24">
-        <v>0.6978423000603584</v>
+        <v>0.8503096621327018</v>
       </c>
       <c r="D24">
-        <v>0.005178461456498695</v>
+        <v>0.1570027883410887</v>
       </c>
       <c r="E24">
-        <v>0.01864625727055902</v>
+        <v>0.09073980852531349</v>
       </c>
       <c r="F24">
-        <v>3.707602040321831</v>
+        <v>0.8125491623292476</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06336086740338231</v>
+        <v>0.07398023465846748</v>
       </c>
       <c r="K24">
-        <v>1.273359147383118</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3679330845151725</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.00930160064177</v>
       </c>
       <c r="N24">
-        <v>1.695384284922596</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.811726477022006</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.363694974239706</v>
+        <v>3.007975820284003</v>
       </c>
       <c r="C25">
-        <v>0.5602316520374586</v>
+        <v>0.7027873165420147</v>
       </c>
       <c r="D25">
-        <v>0.003867702339304557</v>
+        <v>0.1349859426978242</v>
       </c>
       <c r="E25">
-        <v>0.01852161551065024</v>
+        <v>0.08184810904155171</v>
       </c>
       <c r="F25">
-        <v>3.283432172499545</v>
+        <v>0.7384052664378089</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06347708407215435</v>
+        <v>0.07068805307046588</v>
       </c>
       <c r="K25">
-        <v>1.041500303618662</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3108760407414195</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8260988229144104</v>
       </c>
       <c r="N25">
-        <v>1.739161238216681</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.666597904626002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.519370042833089</v>
+        <v>0.955205556636713</v>
       </c>
       <c r="C2">
-        <v>0.5946879216382683</v>
+        <v>0.1864482854026051</v>
       </c>
       <c r="D2">
-        <v>0.1191137582959385</v>
+        <v>0.186891463224228</v>
       </c>
       <c r="E2">
-        <v>0.07573213211886198</v>
+        <v>0.1508914283903522</v>
       </c>
       <c r="F2">
-        <v>0.6914997279594317</v>
+        <v>1.292313883070349</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06890489373360964</v>
+        <v>0.1618723921172318</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6926142481296154</v>
+        <v>0.366599744145077</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.581093091517204</v>
+        <v>3.042813547782231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.18968814868947</v>
+        <v>0.8538813269291836</v>
       </c>
       <c r="C3">
-        <v>0.521583130496964</v>
+        <v>0.1626727339523768</v>
       </c>
       <c r="D3">
-        <v>0.1085335567056944</v>
+        <v>0.1846395855147591</v>
       </c>
       <c r="E3">
-        <v>0.0718239287238589</v>
+        <v>0.150854307453173</v>
       </c>
       <c r="F3">
-        <v>0.6638889197853999</v>
+        <v>1.298760081499694</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06805191230201046</v>
+        <v>0.1630871668864025</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6027630199114</v>
+        <v>0.3404761391511713</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.534734918173115</v>
+        <v>3.066688282738795</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987714415538107</v>
+        <v>0.7916388058351345</v>
       </c>
       <c r="C4">
-        <v>0.4767232674944069</v>
+        <v>0.1480177641776663</v>
       </c>
       <c r="D4">
-        <v>0.1021139505360722</v>
+        <v>0.1833096438735495</v>
       </c>
       <c r="E4">
-        <v>0.06953126151828215</v>
+        <v>0.1508972905513488</v>
       </c>
       <c r="F4">
-        <v>0.648809065508793</v>
+        <v>1.303623361375685</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06769006955765278</v>
+        <v>0.1639225429714628</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5478173726481685</v>
+        <v>0.3244995179948233</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.51146219191898</v>
+        <v>3.083719490105977</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.905487176587826</v>
+        <v>0.7662685286573208</v>
       </c>
       <c r="C5">
-        <v>0.4584427083856326</v>
+        <v>0.1420318546391002</v>
       </c>
       <c r="D5">
-        <v>0.09951579266492416</v>
+        <v>0.1827810063810773</v>
       </c>
       <c r="E5">
-        <v>0.06862253814433572</v>
+        <v>0.1509313656494591</v>
       </c>
       <c r="F5">
-        <v>0.6431088689680351</v>
+        <v>1.305832574178844</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06758144702434876</v>
+        <v>0.1642854613743268</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.525472209719041</v>
+        <v>0.3180052103878168</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.503210526127191</v>
+        <v>3.09125526657192</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.891837180025647</v>
+        <v>0.7620554946846596</v>
       </c>
       <c r="C6">
-        <v>0.4554070656931231</v>
+        <v>0.1410370707646962</v>
       </c>
       <c r="D6">
-        <v>0.0990854114137889</v>
+        <v>0.1826940332928331</v>
       </c>
       <c r="E6">
-        <v>0.06847315095381745</v>
+        <v>0.1509380244964333</v>
       </c>
       <c r="F6">
-        <v>0.6421884943366791</v>
+        <v>1.306213138403521</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06756570265509865</v>
+        <v>0.164347082116894</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5217642737298434</v>
+        <v>0.316927830377594</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.50191269586972</v>
+        <v>3.092542507885128</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.986605196201253</v>
+        <v>0.7912966756640003</v>
       </c>
       <c r="C7">
-        <v>0.4764767369633773</v>
+        <v>0.1479370918652023</v>
       </c>
       <c r="D7">
-        <v>0.1020788402456319</v>
+        <v>0.1833024604425901</v>
       </c>
       <c r="E7">
-        <v>0.06951890440203456</v>
+        <v>0.1508976830268907</v>
       </c>
       <c r="F7">
-        <v>0.6487304224665422</v>
+        <v>1.303652235253765</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06768844981751343</v>
+        <v>0.1639273463438542</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5475158466225878</v>
+        <v>0.3244118670342999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.511346012021647</v>
+        <v>3.083818710779695</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.40557993797421</v>
+        <v>0.9202757663928764</v>
       </c>
       <c r="C8">
-        <v>0.5694717290188862</v>
+        <v>0.1782624499438725</v>
       </c>
       <c r="D8">
-        <v>0.1154489183741347</v>
+        <v>0.1861041130960004</v>
       </c>
       <c r="E8">
-        <v>0.07436154494191882</v>
+        <v>0.1508649886112252</v>
       </c>
       <c r="F8">
-        <v>0.6815745646713651</v>
+        <v>1.294348484180915</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06857602295417564</v>
+        <v>0.1622726650361912</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6615806039319381</v>
+        <v>0.3575793765504471</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.563985961044494</v>
+        <v>3.050552612770502</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.2325179592724</v>
+        <v>1.172926426550589</v>
       </c>
       <c r="C9">
-        <v>0.7523754464352521</v>
+        <v>0.2372676085363707</v>
       </c>
       <c r="D9">
-        <v>0.1423448285839726</v>
+        <v>0.1920139044422484</v>
       </c>
       <c r="E9">
-        <v>0.08477182587864007</v>
+        <v>0.1513220894922398</v>
       </c>
       <c r="F9">
-        <v>0.7620998909640946</v>
+        <v>1.283299597575862</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07169124678360816</v>
+        <v>0.159738469880061</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8875549104946288</v>
+        <v>0.4231114079752629</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.711924030125061</v>
+        <v>3.004187772235298</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.845990028610061</v>
+        <v>1.358336643231439</v>
       </c>
       <c r="C10">
-        <v>0.8875932986526038</v>
+        <v>0.2803234656453526</v>
       </c>
       <c r="D10">
-        <v>0.1626227102580202</v>
+        <v>0.1966064647408672</v>
       </c>
       <c r="E10">
-        <v>0.09307464101962637</v>
+        <v>0.1519749930517094</v>
       </c>
       <c r="F10">
-        <v>0.8329581521598612</v>
+        <v>1.279587958492499</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07495232381051409</v>
+        <v>0.1583105886951266</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.055773545523252</v>
+        <v>0.4715456480627509</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.853118467185993</v>
+        <v>2.981697548245563</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.127013454355392</v>
+        <v>1.442630677157752</v>
       </c>
       <c r="C11">
-        <v>0.9494148291869351</v>
+        <v>0.2998441364315454</v>
       </c>
       <c r="D11">
-        <v>0.17198537753697</v>
+        <v>0.1987496094513403</v>
       </c>
       <c r="E11">
-        <v>0.0970173302699493</v>
+        <v>0.1523407402143917</v>
       </c>
       <c r="F11">
-        <v>0.8681847180163516</v>
+        <v>1.278860405847212</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07667939740080953</v>
+        <v>0.1577554211149277</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.132971805125038</v>
+        <v>0.4936401315067229</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.925677726602686</v>
+        <v>2.973994669067594</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.233768899644929</v>
+        <v>1.474542391286775</v>
       </c>
       <c r="C12">
-        <v>0.9728808807082316</v>
+        <v>0.3072263721833508</v>
       </c>
       <c r="D12">
-        <v>0.1755529067589094</v>
+        <v>0.1995688646867109</v>
       </c>
       <c r="E12">
-        <v>0.09853626064975174</v>
+        <v>0.152489108876793</v>
       </c>
       <c r="F12">
-        <v>0.8819954855406138</v>
+        <v>1.278723391460758</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07737136804222189</v>
+        <v>0.1575587794229989</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.162319239424932</v>
+        <v>0.5020153049565863</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.954467261010024</v>
+        <v>2.971442519217248</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.210761206843529</v>
+        <v>1.467670037867094</v>
       </c>
       <c r="C13">
-        <v>0.9678243893968386</v>
+        <v>0.3056369182773722</v>
       </c>
       <c r="D13">
-        <v>0.1747835556579957</v>
+        <v>0.1993920823405517</v>
       </c>
       <c r="E13">
-        <v>0.09820794391207244</v>
+        <v>0.1524567164007671</v>
       </c>
       <c r="F13">
-        <v>0.87899944425142</v>
+        <v>1.278746735332064</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07722060190361191</v>
+        <v>0.1576005251333328</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.155993380233681</v>
+        <v>0.5002111905917417</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.948206589381613</v>
+        <v>2.971975927777379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.135789169555267</v>
+        <v>1.445256253642469</v>
       </c>
       <c r="C14">
-        <v>0.9513442150957303</v>
+        <v>0.3004516763347169</v>
       </c>
       <c r="D14">
-        <v>0.1722784241984385</v>
+        <v>0.1988168562804589</v>
       </c>
       <c r="E14">
-        <v>0.09714176153484644</v>
+        <v>0.1523527489141934</v>
       </c>
       <c r="F14">
-        <v>0.8693112477777021</v>
+        <v>1.278846356141145</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07673554767512059</v>
+        <v>0.1577389708635693</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.135383845658637</v>
+        <v>0.4943289943925038</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.928019251852362</v>
+        <v>2.973777384702942</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.089912431725509</v>
+        <v>1.431526000947258</v>
       </c>
       <c r="C15">
-        <v>0.941257213041041</v>
+        <v>0.2972742761231189</v>
       </c>
       <c r="D15">
-        <v>0.1707469047758536</v>
+        <v>0.1984655135534581</v>
       </c>
       <c r="E15">
-        <v>0.09649213449671379</v>
+        <v>0.1522903504687534</v>
       </c>
       <c r="F15">
-        <v>0.8634395867354954</v>
+        <v>1.278925422222954</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07644347344264446</v>
+        <v>0.1578255429373243</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.12277530633088</v>
+        <v>0.4907270717080081</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.915828488436972</v>
+        <v>2.974928368624546</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827668549156272</v>
+        <v>1.35282670221261</v>
       </c>
       <c r="C16">
-        <v>0.883560274284946</v>
+        <v>0.2790463903797047</v>
       </c>
       <c r="D16">
-        <v>0.1620138039577199</v>
+        <v>0.196467485356024</v>
       </c>
       <c r="E16">
-        <v>0.09282048636127271</v>
+        <v>0.1519524724046875</v>
       </c>
       <c r="F16">
-        <v>0.8307196538426211</v>
+        <v>1.27965486864862</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07484460286443806</v>
+        <v>0.1583487707997655</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.050743464023753</v>
+        <v>0.4701029273357378</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.848553784549694</v>
+        <v>2.982251925700723</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.667329573450218</v>
+        <v>1.304533411396392</v>
       </c>
       <c r="C17">
-        <v>0.8482520291963169</v>
+        <v>0.2678470870287128</v>
       </c>
       <c r="D17">
-        <v>0.1566932404030013</v>
+        <v>0.1952555336560096</v>
       </c>
       <c r="E17">
-        <v>0.0906119254298865</v>
+        <v>0.1517627889971571</v>
       </c>
       <c r="F17">
-        <v>0.8114416032349681</v>
+        <v>1.280348694960324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07392815336318037</v>
+        <v>0.1586939392746523</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.006738794498716</v>
+        <v>0.4574661695717523</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.809495245698145</v>
+        <v>2.987393061214647</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.575286842958462</v>
+        <v>1.276751764928576</v>
       </c>
       <c r="C18">
-        <v>0.8279721493913144</v>
+        <v>0.261399386508657</v>
       </c>
       <c r="D18">
-        <v>0.1536458534302056</v>
+        <v>0.1945635346280739</v>
       </c>
       <c r="E18">
-        <v>0.089357081036745</v>
+        <v>0.1516601590391033</v>
       </c>
       <c r="F18">
-        <v>0.8006324367153894</v>
+        <v>1.280838190060891</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07342377462161664</v>
+        <v>0.158901353837166</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9814908760896088</v>
+        <v>0.450203651861564</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.787806354144777</v>
+        <v>2.99058798352317</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.544152006640672</v>
+        <v>1.267344626225338</v>
       </c>
       <c r="C19">
-        <v>0.8211103053378679</v>
+        <v>0.2592152599331143</v>
       </c>
       <c r="D19">
-        <v>0.1526162045381199</v>
+        <v>0.1943301108111228</v>
       </c>
       <c r="E19">
-        <v>0.08893480671873633</v>
+        <v>0.1516265221835802</v>
       </c>
       <c r="F19">
-        <v>0.7970193756428756</v>
+        <v>1.281019445458895</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07325682040015025</v>
+        <v>0.1589731059811221</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9729525852349283</v>
+        <v>0.4477456976213716</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.780592884286506</v>
+        <v>2.991710547283958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.684378901745106</v>
+        <v>1.309674803413486</v>
       </c>
       <c r="C20">
-        <v>0.8520076273647703</v>
+        <v>0.2690399120120617</v>
       </c>
       <c r="D20">
-        <v>0.157258276937128</v>
+        <v>0.1953840223468717</v>
       </c>
       <c r="E20">
-        <v>0.09084541567995075</v>
+        <v>0.1517823115220978</v>
       </c>
       <c r="F20">
-        <v>0.8134646176958995</v>
+        <v>1.280265475044303</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07402333708210307</v>
+        <v>0.1586562760495625</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.011416588938246</v>
+        <v>0.4588107752877093</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.81357191998552</v>
+        <v>2.986821150206424</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.157800620226453</v>
+        <v>1.451839970193419</v>
       </c>
       <c r="C21">
-        <v>0.9561832409962392</v>
+        <v>0.3019749770461715</v>
       </c>
       <c r="D21">
-        <v>0.1730136238738282</v>
+        <v>0.1989856058711439</v>
       </c>
       <c r="E21">
-        <v>0.09745420418225947</v>
+        <v>0.1523830189958879</v>
       </c>
       <c r="F21">
-        <v>0.8721437742325975</v>
+        <v>1.278813333869294</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07687696488310536</v>
+        <v>0.1576979370879243</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.141434124465746</v>
+        <v>0.4960565110206687</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.93391216397589</v>
+        <v>2.97323834374032</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.469209323825282</v>
+        <v>1.54470230992888</v>
       </c>
       <c r="C22">
-        <v>1.024597810621799</v>
+        <v>0.3234425436016579</v>
       </c>
       <c r="D22">
-        <v>0.1834405802721193</v>
+        <v>0.2013842577541283</v>
       </c>
       <c r="E22">
-        <v>0.1019256034676665</v>
+        <v>0.1528331276823423</v>
       </c>
       <c r="F22">
-        <v>0.9132621676744463</v>
+        <v>1.278671672062671</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07896480822751073</v>
+        <v>0.1571508172308853</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.22708235803907</v>
+        <v>0.5204479641238322</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.020274756156795</v>
+        <v>2.966487884969268</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.302801354421035</v>
+        <v>1.495145045117056</v>
       </c>
       <c r="C23">
-        <v>0.9880496037054627</v>
+        <v>0.3119902751754182</v>
       </c>
       <c r="D23">
-        <v>0.1778628456755342</v>
+        <v>0.2000999742361387</v>
       </c>
       <c r="E23">
-        <v>0.09952447349305515</v>
+        <v>0.152587639250175</v>
       </c>
       <c r="F23">
-        <v>0.8910488117226407</v>
+        <v>1.278673297663275</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07782906303602033</v>
+        <v>0.1574355723417824</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.181302545294656</v>
+        <v>0.5074254056939651</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.973435017620517</v>
+        <v>2.969895732445877</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.676670473973843</v>
+        <v>1.307350433524277</v>
       </c>
       <c r="C24">
-        <v>0.8503096621327018</v>
+        <v>0.2685006640692791</v>
       </c>
       <c r="D24">
-        <v>0.1570027883410887</v>
+        <v>0.1953259177529532</v>
       </c>
       <c r="E24">
-        <v>0.09073980852531349</v>
+        <v>0.1517734653850162</v>
       </c>
       <c r="F24">
-        <v>0.8125491623292476</v>
+        <v>1.280302816559256</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07398023465846748</v>
+        <v>0.1586732756458744</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.00930160064177</v>
+        <v>0.458202871159358</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.811726477022006</v>
+        <v>2.987078966113643</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.007975820284003</v>
+        <v>1.104611925491554</v>
       </c>
       <c r="C25">
-        <v>0.7027873165420147</v>
+        <v>0.221356066881981</v>
       </c>
       <c r="D25">
-        <v>0.1349859426978242</v>
+        <v>0.1903709329043863</v>
       </c>
       <c r="E25">
-        <v>0.08184810904155171</v>
+        <v>0.1511427021034528</v>
       </c>
       <c r="F25">
-        <v>0.7384052664378089</v>
+        <v>1.285516265775058</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07068805307046588</v>
+        <v>0.1603478792324395</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8260988229144104</v>
+        <v>0.4053319083973648</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.666597904626002</v>
+        <v>3.014703246928178</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.955205556636713</v>
+        <v>2.519370042832861</v>
       </c>
       <c r="C2">
-        <v>0.1864482854026051</v>
+        <v>0.5946879216383252</v>
       </c>
       <c r="D2">
-        <v>0.186891463224228</v>
+        <v>0.1191137582959527</v>
       </c>
       <c r="E2">
-        <v>0.1508914283903522</v>
+        <v>0.07573213211887619</v>
       </c>
       <c r="F2">
-        <v>1.292313883070349</v>
+        <v>0.6914997279594388</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1618723921172318</v>
+        <v>0.06890489373357411</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.366599744145077</v>
+        <v>0.6926142481296083</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.042813547782231</v>
+        <v>1.581093091517261</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8538813269291836</v>
+        <v>2.18968814868964</v>
       </c>
       <c r="C3">
-        <v>0.1626727339523768</v>
+        <v>0.5215831304971914</v>
       </c>
       <c r="D3">
-        <v>0.1846395855147591</v>
+        <v>0.1085335567057513</v>
       </c>
       <c r="E3">
-        <v>0.150854307453173</v>
+        <v>0.0718239287238589</v>
       </c>
       <c r="F3">
-        <v>1.298760081499694</v>
+        <v>0.6638889197853786</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1630871668864025</v>
+        <v>0.06805191230204244</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3404761391511713</v>
+        <v>0.6027630199114142</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.066688282738795</v>
+        <v>1.534734918173086</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7916388058351345</v>
+        <v>1.987714415538107</v>
       </c>
       <c r="C4">
-        <v>0.1480177641776663</v>
+        <v>0.4767232674945774</v>
       </c>
       <c r="D4">
-        <v>0.1833096438735495</v>
+        <v>0.1021139505359727</v>
       </c>
       <c r="E4">
-        <v>0.1508972905513488</v>
+        <v>0.06953126151828215</v>
       </c>
       <c r="F4">
-        <v>1.303623361375685</v>
+        <v>0.6488090655087575</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1639225429714628</v>
+        <v>0.06769006955757817</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3244995179948233</v>
+        <v>0.5478173726481899</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.083719490105977</v>
+        <v>1.511462191918923</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7662685286573208</v>
+        <v>1.905487176587883</v>
       </c>
       <c r="C5">
-        <v>0.1420318546391002</v>
+        <v>0.4584427083856895</v>
       </c>
       <c r="D5">
-        <v>0.1827810063810773</v>
+        <v>0.09951579266500943</v>
       </c>
       <c r="E5">
-        <v>0.1509313656494591</v>
+        <v>0.06862253814433927</v>
       </c>
       <c r="F5">
-        <v>1.305832574178844</v>
+        <v>0.643108868968028</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1642854613743268</v>
+        <v>0.06758144702427415</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3180052103878168</v>
+        <v>0.5254722097190481</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.09125526657192</v>
+        <v>1.503210526127191</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7620554946846596</v>
+        <v>1.891837180025618</v>
       </c>
       <c r="C6">
-        <v>0.1410370707646962</v>
+        <v>0.4554070656934073</v>
       </c>
       <c r="D6">
-        <v>0.1826940332928331</v>
+        <v>0.0990854114139097</v>
       </c>
       <c r="E6">
-        <v>0.1509380244964333</v>
+        <v>0.06847315095383166</v>
       </c>
       <c r="F6">
-        <v>1.306213138403521</v>
+        <v>0.6421884943366649</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.164347082116894</v>
+        <v>0.06756570265508444</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.316927830377594</v>
+        <v>0.5217642737298362</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.092542507885128</v>
+        <v>1.501912695869805</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7912966756640003</v>
+        <v>1.98660519620131</v>
       </c>
       <c r="C7">
-        <v>0.1479370918652023</v>
+        <v>0.4764767369631215</v>
       </c>
       <c r="D7">
-        <v>0.1833024604425901</v>
+        <v>0.1020788402456745</v>
       </c>
       <c r="E7">
-        <v>0.1508976830268907</v>
+        <v>0.06951890440204167</v>
       </c>
       <c r="F7">
-        <v>1.303652235253765</v>
+        <v>0.6487304224665209</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1639273463438542</v>
+        <v>0.0676884498174779</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3244118670342999</v>
+        <v>0.5475158466225878</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.083818710779695</v>
+        <v>1.511346012021619</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9202757663928764</v>
+        <v>2.405579937974096</v>
       </c>
       <c r="C8">
-        <v>0.1782624499438725</v>
+        <v>0.5694717290189715</v>
       </c>
       <c r="D8">
-        <v>0.1861041130960004</v>
+        <v>0.1154489183740068</v>
       </c>
       <c r="E8">
-        <v>0.1508649886112252</v>
+        <v>0.07436154494191527</v>
       </c>
       <c r="F8">
-        <v>1.294348484180915</v>
+        <v>0.6815745646713438</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1622726650361912</v>
+        <v>0.0685760229541188</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3575793765504471</v>
+        <v>0.6615806039319594</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.050552612770502</v>
+        <v>1.563985961044523</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.172926426550589</v>
+        <v>3.2325179592724</v>
       </c>
       <c r="C9">
-        <v>0.2372676085363707</v>
+        <v>0.7523754464356784</v>
       </c>
       <c r="D9">
-        <v>0.1920139044422484</v>
+        <v>0.1423448285837168</v>
       </c>
       <c r="E9">
-        <v>0.1513220894922398</v>
+        <v>0.08477182587863652</v>
       </c>
       <c r="F9">
-        <v>1.283299597575862</v>
+        <v>0.7620998909640946</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.159738469880061</v>
+        <v>0.07169124678360461</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4231114079752629</v>
+        <v>0.8875549104946145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.004187772235298</v>
+        <v>1.71192403012509</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.358336643231439</v>
+        <v>3.845990028609947</v>
       </c>
       <c r="C10">
-        <v>0.2803234656453526</v>
+        <v>0.8875932986526038</v>
       </c>
       <c r="D10">
-        <v>0.1966064647408672</v>
+        <v>0.1626227102579065</v>
       </c>
       <c r="E10">
-        <v>0.1519749930517094</v>
+        <v>0.09307464101963703</v>
       </c>
       <c r="F10">
-        <v>1.279587958492499</v>
+        <v>0.8329581521598612</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1583105886951266</v>
+        <v>0.07495232381048567</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4715456480627509</v>
+        <v>1.055773545523273</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.981697548245563</v>
+        <v>1.853118467185993</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.442630677157752</v>
+        <v>4.12701345435562</v>
       </c>
       <c r="C11">
-        <v>0.2998441364315454</v>
+        <v>0.9494148291871056</v>
       </c>
       <c r="D11">
-        <v>0.1987496094513403</v>
+        <v>0.1719853775370268</v>
       </c>
       <c r="E11">
-        <v>0.1523407402143917</v>
+        <v>0.09701733026995285</v>
       </c>
       <c r="F11">
-        <v>1.278860405847212</v>
+        <v>0.86818471801638</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1577554211149277</v>
+        <v>0.07667939740078111</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4936401315067229</v>
+        <v>1.132971805124996</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.973994669067594</v>
+        <v>1.925677726602743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.474542391286775</v>
+        <v>4.233768899644872</v>
       </c>
       <c r="C12">
-        <v>0.3072263721833508</v>
+        <v>0.972880880707919</v>
       </c>
       <c r="D12">
-        <v>0.1995688646867109</v>
+        <v>0.1755529067589094</v>
       </c>
       <c r="E12">
-        <v>0.152489108876793</v>
+        <v>0.09853626064978727</v>
       </c>
       <c r="F12">
-        <v>1.278723391460758</v>
+        <v>0.8819954855406138</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1575587794229989</v>
+        <v>0.07737136804212952</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5020153049565863</v>
+        <v>1.162319239424932</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.971442519217248</v>
+        <v>1.95446726101008</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.467670037867094</v>
+        <v>4.210761206843415</v>
       </c>
       <c r="C13">
-        <v>0.3056369182773722</v>
+        <v>0.9678243893968954</v>
       </c>
       <c r="D13">
-        <v>0.1993920823405517</v>
+        <v>0.1747835556579815</v>
       </c>
       <c r="E13">
-        <v>0.1524567164007671</v>
+        <v>0.09820794391206888</v>
       </c>
       <c r="F13">
-        <v>1.278746735332064</v>
+        <v>0.8789994442514484</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1576005251333328</v>
+        <v>0.07722060190370428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5002111905917417</v>
+        <v>1.155993380233681</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.971975927777379</v>
+        <v>1.948206589381556</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.445256253642469</v>
+        <v>4.135789169555323</v>
       </c>
       <c r="C14">
-        <v>0.3004516763347169</v>
+        <v>0.9513442150957587</v>
       </c>
       <c r="D14">
-        <v>0.1988168562804589</v>
+        <v>0.1722784241985096</v>
       </c>
       <c r="E14">
-        <v>0.1523527489141934</v>
+        <v>0.0971417615348571</v>
       </c>
       <c r="F14">
-        <v>1.278846356141145</v>
+        <v>0.8693112477776879</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1577389708635693</v>
+        <v>0.0767355476751348</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4943289943925038</v>
+        <v>1.135383845658623</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.973777384702942</v>
+        <v>1.928019251852419</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.431526000947258</v>
+        <v>4.089912431725452</v>
       </c>
       <c r="C15">
-        <v>0.2972742761231189</v>
+        <v>0.9412572130405579</v>
       </c>
       <c r="D15">
-        <v>0.1984655135534581</v>
+        <v>0.1707469047757399</v>
       </c>
       <c r="E15">
-        <v>0.1522903504687534</v>
+        <v>0.09649213449672445</v>
       </c>
       <c r="F15">
-        <v>1.278925422222954</v>
+        <v>0.8634395867354812</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1578255429373243</v>
+        <v>0.07644347344264446</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4907270717080081</v>
+        <v>1.122775306330915</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.974928368624546</v>
+        <v>1.915828488437029</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.35282670221261</v>
+        <v>3.827668549156215</v>
       </c>
       <c r="C16">
-        <v>0.2790463903797047</v>
+        <v>0.8835602742844344</v>
       </c>
       <c r="D16">
-        <v>0.196467485356024</v>
+        <v>0.162013803957791</v>
       </c>
       <c r="E16">
-        <v>0.1519524724046875</v>
+        <v>0.09282048636127627</v>
       </c>
       <c r="F16">
-        <v>1.27965486864862</v>
+        <v>0.8307196538426211</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1583487707997655</v>
+        <v>0.07484460286445227</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4701029273357378</v>
+        <v>1.050743464023725</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.982251925700723</v>
+        <v>1.848553784549665</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304533411396392</v>
+        <v>3.667329573450161</v>
       </c>
       <c r="C17">
-        <v>0.2678470870287128</v>
+        <v>0.8482520291968001</v>
       </c>
       <c r="D17">
-        <v>0.1952555336560096</v>
+        <v>0.1566932404030581</v>
       </c>
       <c r="E17">
-        <v>0.1517627889971571</v>
+        <v>0.0906119254298865</v>
       </c>
       <c r="F17">
-        <v>1.280348694960324</v>
+        <v>0.8114416032349823</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1586939392746523</v>
+        <v>0.07392815336313774</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4574661695717523</v>
+        <v>1.006738794498709</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.987393061214647</v>
+        <v>1.80949524569823</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.276751764928576</v>
+        <v>3.575286842958405</v>
       </c>
       <c r="C18">
-        <v>0.261399386508657</v>
+        <v>0.8279721493912291</v>
       </c>
       <c r="D18">
-        <v>0.1945635346280739</v>
+        <v>0.1536458534301914</v>
       </c>
       <c r="E18">
-        <v>0.1516601590391033</v>
+        <v>0.089357081036745</v>
       </c>
       <c r="F18">
-        <v>1.280838190060891</v>
+        <v>0.8006324367153894</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.158901353837166</v>
+        <v>0.07342377462166993</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.450203651861564</v>
+        <v>0.9814908760895946</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.99058798352317</v>
+        <v>1.787806354144777</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.267344626225338</v>
+        <v>3.544152006640616</v>
       </c>
       <c r="C19">
-        <v>0.2592152599331143</v>
+        <v>0.8211103053380953</v>
       </c>
       <c r="D19">
-        <v>0.1943301108111228</v>
+        <v>0.1526162045381199</v>
       </c>
       <c r="E19">
-        <v>0.1516265221835802</v>
+        <v>0.08893480671872211</v>
       </c>
       <c r="F19">
-        <v>1.281019445458895</v>
+        <v>0.7970193756428756</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1589731059811221</v>
+        <v>0.07325682040015735</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4477456976213716</v>
+        <v>0.9729525852349497</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.991710547283958</v>
+        <v>1.780592884286477</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.309674803413486</v>
+        <v>3.684378901745163</v>
       </c>
       <c r="C20">
-        <v>0.2690399120120617</v>
+        <v>0.8520076273647987</v>
       </c>
       <c r="D20">
-        <v>0.1953840223468717</v>
+        <v>0.1572582769370428</v>
       </c>
       <c r="E20">
-        <v>0.1517823115220978</v>
+        <v>0.09084541567992588</v>
       </c>
       <c r="F20">
-        <v>1.280265475044303</v>
+        <v>0.8134646176958711</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1586562760495625</v>
+        <v>0.07402333708208531</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4588107752877093</v>
+        <v>1.011416588938253</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.986821150206424</v>
+        <v>1.81357191998552</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.451839970193419</v>
+        <v>4.157800620226737</v>
       </c>
       <c r="C21">
-        <v>0.3019749770461715</v>
+        <v>0.9561832409965803</v>
       </c>
       <c r="D21">
-        <v>0.1989856058711439</v>
+        <v>0.1730136238740698</v>
       </c>
       <c r="E21">
-        <v>0.1523830189958879</v>
+        <v>0.09745420418225947</v>
       </c>
       <c r="F21">
-        <v>1.278813333869294</v>
+        <v>0.8721437742325833</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1576979370879243</v>
+        <v>0.07687696488307694</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4960565110206687</v>
+        <v>1.141434124465732</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.97323834374032</v>
+        <v>1.93391216397589</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.54470230992888</v>
+        <v>4.469209323825453</v>
       </c>
       <c r="C22">
-        <v>0.3234425436016579</v>
+        <v>1.024597810621799</v>
       </c>
       <c r="D22">
-        <v>0.2013842577541283</v>
+        <v>0.1834405802718777</v>
       </c>
       <c r="E22">
-        <v>0.1528331276823423</v>
+        <v>0.1019256034676488</v>
       </c>
       <c r="F22">
-        <v>1.278671672062671</v>
+        <v>0.9132621676744179</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1571508172308853</v>
+        <v>0.07896480822752494</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5204479641238322</v>
+        <v>1.227082358039056</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.966487884969268</v>
+        <v>2.020274756156795</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.495145045117056</v>
+        <v>4.302801354420865</v>
       </c>
       <c r="C23">
-        <v>0.3119902751754182</v>
+        <v>0.9880496037052069</v>
       </c>
       <c r="D23">
-        <v>0.2000999742361387</v>
+        <v>0.1778628456755911</v>
       </c>
       <c r="E23">
-        <v>0.152587639250175</v>
+        <v>0.09952447349305515</v>
       </c>
       <c r="F23">
-        <v>1.278673297663275</v>
+        <v>0.8910488117226549</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1574355723417824</v>
+        <v>0.07782906303597059</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5074254056939651</v>
+        <v>1.181302545294699</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.969895732445877</v>
+        <v>1.973435017620488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.307350433524277</v>
+        <v>3.676670473973957</v>
       </c>
       <c r="C24">
-        <v>0.2685006640692791</v>
+        <v>0.8503096621325028</v>
       </c>
       <c r="D24">
-        <v>0.1953259177529532</v>
+        <v>0.1570027883410319</v>
       </c>
       <c r="E24">
-        <v>0.1517734653850162</v>
+        <v>0.09073980852531349</v>
       </c>
       <c r="F24">
-        <v>1.280302816559256</v>
+        <v>0.8125491623292334</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1586732756458744</v>
+        <v>0.07398023465858827</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.458202871159358</v>
+        <v>1.009301600641756</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.987078966113643</v>
+        <v>1.811726477021978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.104611925491554</v>
+        <v>3.007975820283889</v>
       </c>
       <c r="C25">
-        <v>0.221356066881981</v>
+        <v>0.7027873165416167</v>
       </c>
       <c r="D25">
-        <v>0.1903709329043863</v>
+        <v>0.1349859426978099</v>
       </c>
       <c r="E25">
-        <v>0.1511427021034528</v>
+        <v>0.08184810904155171</v>
       </c>
       <c r="F25">
-        <v>1.285516265775058</v>
+        <v>0.7384052664377947</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1603478792324395</v>
+        <v>0.07068805307052273</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4053319083973648</v>
+        <v>0.8260988229144246</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.014703246928178</v>
+        <v>1.666597904625945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.519370042832861</v>
+        <v>1.440168666076062</v>
       </c>
       <c r="C2">
-        <v>0.5946879216383252</v>
+        <v>0.1704929674868367</v>
       </c>
       <c r="D2">
-        <v>0.1191137582959527</v>
+        <v>0.01288365119892987</v>
       </c>
       <c r="E2">
-        <v>0.07573213211887619</v>
+        <v>0.02113310184223316</v>
       </c>
       <c r="F2">
-        <v>0.6914997279594388</v>
+        <v>1.887045783956566</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.02766111305360952</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03314494369342214</v>
       </c>
       <c r="J2">
-        <v>0.06890489373357411</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.118491833842896</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04558324956067494</v>
       </c>
       <c r="M2">
-        <v>0.6926142481296083</v>
+        <v>1.467837715415186</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2252822883985175</v>
       </c>
       <c r="O2">
-        <v>1.581093091517261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.771130080509707</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.18968814868964</v>
+        <v>1.266870117410377</v>
       </c>
       <c r="C3">
-        <v>0.5215831304971914</v>
+        <v>0.1480672066356874</v>
       </c>
       <c r="D3">
-        <v>0.1085335567057513</v>
+        <v>0.01126016281300224</v>
       </c>
       <c r="E3">
-        <v>0.0718239287238589</v>
+        <v>0.01881489883898624</v>
       </c>
       <c r="F3">
-        <v>0.6638889197853786</v>
+        <v>1.790992134378243</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.03347873547710045</v>
+      </c>
+      <c r="I3">
+        <v>0.03955569676846959</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.06805191230204244</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.07516376803283</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04156558924138309</v>
       </c>
       <c r="M3">
-        <v>0.6027630199114142</v>
+        <v>1.288939559692466</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1999212095827403</v>
       </c>
       <c r="O3">
-        <v>1.534734918173086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.782642981337958</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987714415538107</v>
+        <v>1.160384025184982</v>
       </c>
       <c r="C4">
-        <v>0.4767232674945774</v>
+        <v>0.134607949544673</v>
       </c>
       <c r="D4">
-        <v>0.1021139505359727</v>
+        <v>0.01028051309368294</v>
       </c>
       <c r="E4">
-        <v>0.06953126151828215</v>
+        <v>0.01739686287691811</v>
       </c>
       <c r="F4">
-        <v>0.6488090655087575</v>
+        <v>1.732502832086013</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.03746454134964106</v>
+      </c>
+      <c r="I4">
+        <v>0.04395832985506276</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.06769006955757817</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.048652556460603</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.03908089214998967</v>
       </c>
       <c r="M4">
-        <v>0.5478173726481899</v>
+        <v>1.179448727568797</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1844281474407623</v>
       </c>
       <c r="O4">
-        <v>1.511462191918923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.789852265520921</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.905487176587883</v>
+        <v>1.1159003756907</v>
       </c>
       <c r="C5">
-        <v>0.4584427083856895</v>
+        <v>0.1294070647448962</v>
       </c>
       <c r="D5">
-        <v>0.09951579266500943</v>
+        <v>0.009922644933705982</v>
       </c>
       <c r="E5">
-        <v>0.06862253814433927</v>
+        <v>0.01681565808010888</v>
       </c>
       <c r="F5">
-        <v>0.643108868968028</v>
+        <v>1.707274179187124</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.03920225040917669</v>
+      </c>
+      <c r="I5">
+        <v>0.04597782013595841</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.06758144702427415</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.036774332880611</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03802196046635231</v>
       </c>
       <c r="M5">
-        <v>0.5254722097190481</v>
+        <v>1.134383223817025</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1782476415577321</v>
       </c>
       <c r="O5">
-        <v>1.503210526127191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.791613300646937</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.891837180025618</v>
+        <v>1.107215419502978</v>
       </c>
       <c r="C6">
-        <v>0.4554070656934073</v>
+        <v>0.1288078331569125</v>
       </c>
       <c r="D6">
-        <v>0.0990854114139097</v>
+        <v>0.009909304392152762</v>
       </c>
       <c r="E6">
-        <v>0.06847315095383166</v>
+        <v>0.01671414186598419</v>
       </c>
       <c r="F6">
-        <v>0.6421884943366649</v>
+        <v>1.701251531117833</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.03951254847462526</v>
+      </c>
+      <c r="I6">
+        <v>0.04646387144519881</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.06756570265508444</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.033466628446995</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03779570094355833</v>
       </c>
       <c r="M6">
-        <v>0.5217642737298362</v>
+        <v>1.126267650937422</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1773643710744466</v>
       </c>
       <c r="O6">
-        <v>1.501912695869805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.790431874643559</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.98660519620131</v>
+        <v>1.156230840457027</v>
       </c>
       <c r="C7">
-        <v>0.4764767369631215</v>
+        <v>0.1352492043679803</v>
       </c>
       <c r="D7">
-        <v>0.1020788402456745</v>
+        <v>0.01040117961582965</v>
       </c>
       <c r="E7">
-        <v>0.06951890440204167</v>
+        <v>0.01737520011917226</v>
       </c>
       <c r="F7">
-        <v>0.6487304224665209</v>
+        <v>1.727136766418766</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.03752885374164583</v>
+      </c>
+      <c r="I7">
+        <v>0.04435836549426408</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.0676884498174779</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.044842225665434</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03892951344639783</v>
       </c>
       <c r="M7">
-        <v>0.5475158466225878</v>
+        <v>1.177095567370486</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1847335949279767</v>
       </c>
       <c r="O7">
-        <v>1.511346012021619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.785862578705967</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.405579937974096</v>
+        <v>1.375670967365494</v>
       </c>
       <c r="C8">
-        <v>0.5694717290189715</v>
+        <v>0.163639399875521</v>
       </c>
       <c r="D8">
-        <v>0.1154489183740068</v>
+        <v>0.0124880125286424</v>
       </c>
       <c r="E8">
-        <v>0.07436154494191527</v>
+        <v>0.02031373360522259</v>
       </c>
       <c r="F8">
-        <v>0.6815745646713438</v>
+        <v>1.847170557470236</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.02962553081250019</v>
+      </c>
+      <c r="I8">
+        <v>0.03570017318572649</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.0685760229541188</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.098705393025199</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04401824311062441</v>
       </c>
       <c r="M8">
-        <v>0.6615806039319594</v>
+        <v>1.403730904928011</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2170388283012556</v>
       </c>
       <c r="O8">
-        <v>1.563985961044523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.769843287009209</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.2325179592724</v>
+        <v>1.812318324033328</v>
       </c>
       <c r="C9">
-        <v>0.7523754464356784</v>
+        <v>0.2208004369562957</v>
       </c>
       <c r="D9">
-        <v>0.1423448285837168</v>
+        <v>0.01650436482037776</v>
       </c>
       <c r="E9">
-        <v>0.08477182587863652</v>
+        <v>0.02617118145356123</v>
       </c>
       <c r="F9">
-        <v>0.7620998909640946</v>
+        <v>2.09600025902246</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.01751685623626686</v>
+      </c>
+      <c r="I9">
+        <v>0.02204108995410081</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.07169124678360461</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.211813409176216</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0541481331918483</v>
       </c>
       <c r="M9">
-        <v>0.8875549104946145</v>
+        <v>1.854930194415374</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2804398989829622</v>
       </c>
       <c r="O9">
-        <v>1.71192403012509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.746716817942016</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.845990028609947</v>
+        <v>2.117910228125936</v>
       </c>
       <c r="C10">
-        <v>0.8875932986526038</v>
+        <v>0.2649302266882785</v>
       </c>
       <c r="D10">
-        <v>0.1626227102579065</v>
+        <v>0.01929362667468126</v>
       </c>
       <c r="E10">
-        <v>0.09307464101963703</v>
+        <v>0.02924520799782115</v>
       </c>
       <c r="F10">
-        <v>0.8329581521598612</v>
+        <v>2.251960839857858</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.01144024498977814</v>
+      </c>
+      <c r="I10">
+        <v>0.01496526750667648</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.07495232381048567</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.27813798085694</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.05916514850253307</v>
       </c>
       <c r="M10">
-        <v>1.055773545523273</v>
+        <v>2.176633949959978</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3178771306069308</v>
       </c>
       <c r="O10">
-        <v>1.853118467185993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.711725443693354</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.12701345435562</v>
+        <v>2.127989054581064</v>
       </c>
       <c r="C11">
-        <v>0.9494148291871056</v>
+        <v>0.2834251906672876</v>
       </c>
       <c r="D11">
-        <v>0.1719853775370268</v>
+        <v>0.01788171487772416</v>
       </c>
       <c r="E11">
-        <v>0.09701733026995285</v>
+        <v>0.02103398496009579</v>
       </c>
       <c r="F11">
-        <v>0.86818471801638</v>
+        <v>2.077915312392904</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02963799900310704</v>
+      </c>
+      <c r="I11">
+        <v>0.01408109325941709</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.07667939740078111</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.168465094884674</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.04559695529248842</v>
       </c>
       <c r="M11">
-        <v>1.132971805124996</v>
+        <v>2.213322398985952</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2538735497539761</v>
       </c>
       <c r="O11">
-        <v>1.925677726602743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.552873246967891</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.233768899644872</v>
+        <v>2.076363676681581</v>
       </c>
       <c r="C12">
-        <v>0.972880880707919</v>
+        <v>0.2882692464765455</v>
       </c>
       <c r="D12">
-        <v>0.1755529067589094</v>
+        <v>0.01596592988585854</v>
       </c>
       <c r="E12">
-        <v>0.09853626064978727</v>
+        <v>0.01579952634624959</v>
       </c>
       <c r="F12">
-        <v>0.8819954855406138</v>
+        <v>1.910858874205729</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06868264560886672</v>
+      </c>
+      <c r="I12">
+        <v>0.0140200320327164</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.07737136804212952</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.07152057411826</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.03976422107622524</v>
       </c>
       <c r="M12">
-        <v>1.162319239424932</v>
+        <v>2.177385175155479</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1980968171543083</v>
       </c>
       <c r="O12">
-        <v>1.95446726101008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.444634531243281</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.210761206843415</v>
+        <v>1.968934252837641</v>
       </c>
       <c r="C13">
-        <v>0.9678243893968954</v>
+        <v>0.2838674411226521</v>
       </c>
       <c r="D13">
-        <v>0.1747835556579815</v>
+        <v>0.01376105986910403</v>
       </c>
       <c r="E13">
-        <v>0.09820794391206888</v>
+        <v>0.01252790613513532</v>
       </c>
       <c r="F13">
-        <v>0.8789994442514484</v>
+        <v>1.731991355426501</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1254992864192559</v>
+      </c>
+      <c r="I13">
+        <v>0.01505046803154286</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.07722060190370428</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9731992808797116</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03925218251209106</v>
       </c>
       <c r="M13">
-        <v>1.155993380233681</v>
+        <v>2.080775194691228</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1464039571152114</v>
       </c>
       <c r="O13">
-        <v>1.948206589381556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.3622803378708</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.135789169555323</v>
+        <v>1.868085144694277</v>
       </c>
       <c r="C14">
-        <v>0.9513442150957587</v>
+        <v>0.2768508815012467</v>
       </c>
       <c r="D14">
-        <v>0.1722784241985096</v>
+        <v>0.01214418800635642</v>
       </c>
       <c r="E14">
-        <v>0.0971417615348571</v>
+        <v>0.01144850281809151</v>
       </c>
       <c r="F14">
-        <v>0.8693112477776879</v>
+        <v>1.601967169957675</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.175919456451112</v>
+      </c>
+      <c r="I14">
+        <v>0.01641441266577104</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.0767355476751348</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9039483029887663</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0421320998352801</v>
       </c>
       <c r="M14">
-        <v>1.135383845658623</v>
+        <v>1.98570228529519</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1134145825844612</v>
       </c>
       <c r="O14">
-        <v>1.928019251852419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.317312322805705</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.089912431725452</v>
+        <v>1.830661167974853</v>
       </c>
       <c r="C15">
-        <v>0.9412572130405579</v>
+        <v>0.273502924520983</v>
       </c>
       <c r="D15">
-        <v>0.1707469047757399</v>
+        <v>0.01172363467770765</v>
       </c>
       <c r="E15">
-        <v>0.09649213449672445</v>
+        <v>0.0113016329613671</v>
       </c>
       <c r="F15">
-        <v>0.8634395867354812</v>
+        <v>1.565848264240756</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1889306481931214</v>
+      </c>
+      <c r="I15">
+        <v>0.01716431624305503</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.07644347344264446</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8853311319621398</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04312909676691845</v>
       </c>
       <c r="M15">
-        <v>1.122775306330915</v>
+        <v>1.949341114289183</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1055391829910377</v>
       </c>
       <c r="O15">
-        <v>1.915828488437029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.309457503608844</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827668549156215</v>
+        <v>1.721522952669119</v>
       </c>
       <c r="C16">
-        <v>0.8835602742844344</v>
+        <v>0.2555515707691427</v>
       </c>
       <c r="D16">
-        <v>0.162013803957791</v>
+        <v>0.01108905239987124</v>
       </c>
       <c r="E16">
-        <v>0.09282048636127627</v>
+        <v>0.01074917729755898</v>
       </c>
       <c r="F16">
-        <v>0.8307196538426211</v>
+        <v>1.535082265211912</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1787284082326863</v>
+      </c>
+      <c r="I16">
+        <v>0.0200986179495164</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.07484460286445227</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8761888234805184</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04108457315571101</v>
       </c>
       <c r="M16">
-        <v>1.050743464023725</v>
+        <v>1.831312822000626</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1017570351958739</v>
       </c>
       <c r="O16">
-        <v>1.848553784549665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.33815018347412</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.667329573450161</v>
+        <v>1.690954875733468</v>
       </c>
       <c r="C17">
-        <v>0.8482520291968001</v>
+        <v>0.245638892057741</v>
       </c>
       <c r="D17">
-        <v>0.1566932404030581</v>
+        <v>0.01145330538350464</v>
       </c>
       <c r="E17">
-        <v>0.0906119254298865</v>
+        <v>0.01067066009207085</v>
       </c>
       <c r="F17">
-        <v>0.8114416032349823</v>
+        <v>1.579465854876659</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1423597084123429</v>
+      </c>
+      <c r="I17">
+        <v>0.02167982803224788</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.07392815336313774</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9052369684946768</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03739424795488233</v>
       </c>
       <c r="M17">
-        <v>1.006738794498709</v>
+        <v>1.791151981194929</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1155055562369682</v>
       </c>
       <c r="O17">
-        <v>1.80949524569823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.383093869322238</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.575286842958405</v>
+        <v>1.727058201007424</v>
       </c>
       <c r="C18">
-        <v>0.8279721493912291</v>
+        <v>0.2406887062597036</v>
       </c>
       <c r="D18">
-        <v>0.1536458534301914</v>
+        <v>0.01266966193603025</v>
       </c>
       <c r="E18">
-        <v>0.089357081036745</v>
+        <v>0.0121343048258038</v>
       </c>
       <c r="F18">
-        <v>0.8006324367153894</v>
+        <v>1.700229558294225</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.08975867955028605</v>
+      </c>
+      <c r="I18">
+        <v>0.02171991757743097</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.07342377462166993</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9752743147779697</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0349907636967921</v>
       </c>
       <c r="M18">
-        <v>0.9814908760895946</v>
+        <v>1.814172851285576</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1492495368641258</v>
       </c>
       <c r="O18">
-        <v>1.787806354144777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.45560996735513</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.544152006640616</v>
+        <v>1.808041333706626</v>
       </c>
       <c r="C19">
-        <v>0.8211103053380953</v>
+        <v>0.2413773104529753</v>
       </c>
       <c r="D19">
-        <v>0.1526162045381199</v>
+        <v>0.0147738125124306</v>
       </c>
       <c r="E19">
-        <v>0.08893480671872211</v>
+        <v>0.01643917159654151</v>
       </c>
       <c r="F19">
-        <v>0.7970193756428756</v>
+        <v>1.871632022361894</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.04343775887678447</v>
+      </c>
+      <c r="I19">
+        <v>0.02110159338484685</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.07325682040015735</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.071680132105087</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03843464188551771</v>
       </c>
       <c r="M19">
-        <v>0.9729525852349497</v>
+        <v>1.883079436357349</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2027615438338586</v>
       </c>
       <c r="O19">
-        <v>1.780592884286477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.550096193818725</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.684378901745163</v>
+        <v>2.025581619229058</v>
       </c>
       <c r="C20">
-        <v>0.8520076273647987</v>
+        <v>0.2554330850385611</v>
       </c>
       <c r="D20">
-        <v>0.1572582769370428</v>
+        <v>0.01894499698763852</v>
       </c>
       <c r="E20">
-        <v>0.09084541567992588</v>
+        <v>0.02833074169189764</v>
       </c>
       <c r="F20">
-        <v>0.8134646176958711</v>
+        <v>2.194010595736501</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.01294057834753781</v>
+      </c>
+      <c r="I20">
+        <v>0.01765399045607374</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.07402333708208531</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.24872419401224</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.05731771387989681</v>
       </c>
       <c r="M20">
-        <v>1.011416588938253</v>
+        <v>2.085730519979506</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3088256775380103</v>
       </c>
       <c r="O20">
-        <v>1.81357191998552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.708366665721499</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.157800620226737</v>
+        <v>2.28465856919064</v>
       </c>
       <c r="C21">
-        <v>0.9561832409965803</v>
+        <v>0.2902064326524396</v>
       </c>
       <c r="D21">
-        <v>0.1730136238740698</v>
+        <v>0.0215749963925802</v>
       </c>
       <c r="E21">
-        <v>0.09745420418225947</v>
+        <v>0.03275511492897287</v>
       </c>
       <c r="F21">
-        <v>0.8721437742325833</v>
+        <v>2.361635021534994</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.008357374848176669</v>
+      </c>
+      <c r="I21">
+        <v>0.01263078580008425</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.07687696488307694</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.32701140152048</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06492393139265218</v>
       </c>
       <c r="M21">
-        <v>1.141434124465732</v>
+        <v>2.354112619609481</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3530075209024659</v>
       </c>
       <c r="O21">
-        <v>1.93391216397589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.710970022660732</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.469209323825453</v>
+        <v>2.452046064317472</v>
       </c>
       <c r="C22">
-        <v>1.024597810621799</v>
+        <v>0.3123447728605697</v>
       </c>
       <c r="D22">
-        <v>0.1834405802718777</v>
+        <v>0.02297609354319974</v>
       </c>
       <c r="E22">
-        <v>0.1019256034676488</v>
+        <v>0.03503095161428504</v>
       </c>
       <c r="F22">
-        <v>0.9132621676744179</v>
+        <v>2.464448669573159</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.006080525383864832</v>
+      </c>
+      <c r="I22">
+        <v>0.009620306456813665</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.07896480822752494</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.37509945147238</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0689062920695882</v>
       </c>
       <c r="M22">
-        <v>1.227082358039056</v>
+        <v>2.526703365179088</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3764541468319891</v>
       </c>
       <c r="O22">
-        <v>2.020274756156795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.709101612830082</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.302801354420865</v>
+        <v>2.367039081108032</v>
       </c>
       <c r="C23">
-        <v>0.9880496037052069</v>
+        <v>0.2996154182810926</v>
       </c>
       <c r="D23">
-        <v>0.1778628456755911</v>
+        <v>0.02206960201620944</v>
       </c>
       <c r="E23">
-        <v>0.09952447349305515</v>
+        <v>0.03383115380228929</v>
       </c>
       <c r="F23">
-        <v>0.8910488117226549</v>
+        <v>2.415395388914519</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.007228799707795941</v>
+      </c>
+      <c r="I23">
+        <v>0.01080396476488676</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.07782906303597059</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.353682393281602</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06694548631842423</v>
       </c>
       <c r="M23">
-        <v>1.181302545294699</v>
+        <v>2.436657790839831</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3634478184009282</v>
       </c>
       <c r="O23">
-        <v>1.973435017620488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.714496970069732</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.676670473973957</v>
+        <v>2.039133296664545</v>
       </c>
       <c r="C24">
-        <v>0.8503096621325028</v>
+        <v>0.2538423049442144</v>
       </c>
       <c r="D24">
-        <v>0.1570027883410319</v>
+        <v>0.01893679420018302</v>
       </c>
       <c r="E24">
-        <v>0.09073980852531349</v>
+        <v>0.02931829396331054</v>
       </c>
       <c r="F24">
-        <v>0.8125491623292334</v>
+        <v>2.222428665605221</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.01262687302156906</v>
+      </c>
+      <c r="I24">
+        <v>0.0169895756796441</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.07398023465858827</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.266556525881597</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.05930807586958053</v>
       </c>
       <c r="M24">
-        <v>1.009301600641756</v>
+        <v>2.094339273080948</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3152941330775292</v>
       </c>
       <c r="O24">
-        <v>1.811726477021978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.728656293967731</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.007975820283889</v>
+        <v>1.687546825202332</v>
       </c>
       <c r="C25">
-        <v>0.7027873165416167</v>
+        <v>0.2063005729518324</v>
       </c>
       <c r="D25">
-        <v>0.1349859426978099</v>
+        <v>0.01563286226913618</v>
       </c>
       <c r="E25">
-        <v>0.08184810904155171</v>
+        <v>0.02454906363640319</v>
       </c>
       <c r="F25">
-        <v>0.7384052664377947</v>
+        <v>2.019048859686478</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.02044867182606303</v>
+      </c>
+      <c r="I25">
+        <v>0.0258816029760256</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.07068805307052273</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.174503206047511</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05115948337919463</v>
       </c>
       <c r="M25">
-        <v>0.8260988229144246</v>
+        <v>1.729115991458286</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.263905625100989</v>
       </c>
       <c r="O25">
-        <v>1.666597904625945</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.745837507148366</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.440168666076062</v>
+        <v>1.276111962722581</v>
       </c>
       <c r="C2">
-        <v>0.1704929674868367</v>
+        <v>0.202776103848791</v>
       </c>
       <c r="D2">
-        <v>0.01288365119892987</v>
+        <v>0.01892880927492868</v>
       </c>
       <c r="E2">
-        <v>0.02113310184223316</v>
+        <v>0.02157631904339752</v>
       </c>
       <c r="F2">
-        <v>1.887045783956566</v>
+        <v>1.622707564861599</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02766111305360952</v>
+        <v>0.02228682274789939</v>
       </c>
       <c r="I2">
-        <v>0.03314494369342214</v>
+        <v>0.02454976089640448</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.118491833842896</v>
+        <v>0.9113789575693261</v>
       </c>
       <c r="L2">
-        <v>0.04558324956067494</v>
+        <v>0.3545550282378542</v>
       </c>
       <c r="M2">
-        <v>1.467837715415186</v>
+        <v>0.3277571902340561</v>
       </c>
       <c r="N2">
-        <v>0.2252822883985175</v>
+        <v>0.04005872500371055</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.392297755214258</v>
       </c>
       <c r="P2">
-        <v>1.771130080509707</v>
+        <v>0.2525877311576892</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.527393051611263</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.266870117410377</v>
+        <v>1.123935616474739</v>
       </c>
       <c r="C3">
-        <v>0.1480672066356874</v>
+        <v>0.1759214809400902</v>
       </c>
       <c r="D3">
-        <v>0.01126016281300224</v>
+        <v>0.01626216498807764</v>
       </c>
       <c r="E3">
-        <v>0.01881489883898624</v>
+        <v>0.01934200804296005</v>
       </c>
       <c r="F3">
-        <v>1.790992134378243</v>
+        <v>1.553404223669617</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03347873547710045</v>
+        <v>0.02709961971756614</v>
       </c>
       <c r="I3">
-        <v>0.03955569676846959</v>
+        <v>0.02940408936437944</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.07516376803283</v>
+        <v>0.8862017711445702</v>
       </c>
       <c r="L3">
-        <v>0.04156558924138309</v>
+        <v>0.3511472139113678</v>
       </c>
       <c r="M3">
-        <v>1.288939559692466</v>
+        <v>0.314202855090997</v>
       </c>
       <c r="N3">
-        <v>0.1999212095827403</v>
+        <v>0.03688707467556007</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.223265017986222</v>
       </c>
       <c r="P3">
-        <v>1.782642981337958</v>
+        <v>0.2247556653781686</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.554736525914912</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.160384025184982</v>
+        <v>1.030111883428901</v>
       </c>
       <c r="C4">
-        <v>0.134607949544673</v>
+        <v>0.1598316140779446</v>
       </c>
       <c r="D4">
-        <v>0.01028051309368294</v>
+        <v>0.01465315333471651</v>
       </c>
       <c r="E4">
-        <v>0.01739686287691811</v>
+        <v>0.01797205212190001</v>
       </c>
       <c r="F4">
-        <v>1.732502832086013</v>
+        <v>1.511125538910179</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03746454134964106</v>
+        <v>0.03040572167055555</v>
       </c>
       <c r="I4">
-        <v>0.04395832985506276</v>
+        <v>0.03276151948126049</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.048652556460603</v>
+        <v>0.8707045710675203</v>
       </c>
       <c r="L4">
-        <v>0.03908089214998967</v>
+        <v>0.3487645956966219</v>
       </c>
       <c r="M4">
-        <v>1.179448727568797</v>
+        <v>0.3066821355623688</v>
       </c>
       <c r="N4">
-        <v>0.1844281474407623</v>
+        <v>0.03491681262981139</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.119614343382096</v>
       </c>
       <c r="P4">
-        <v>1.789852265520921</v>
+        <v>0.2077728605637645</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.571738799971314</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1159003756907</v>
+        <v>0.9908216533955567</v>
       </c>
       <c r="C5">
-        <v>0.1294070647448962</v>
+        <v>0.1535870436178186</v>
       </c>
       <c r="D5">
-        <v>0.009922644933705982</v>
+        <v>0.01404694049541533</v>
       </c>
       <c r="E5">
-        <v>0.01681565808010888</v>
+        <v>0.01740985272529727</v>
       </c>
       <c r="F5">
-        <v>1.707274179187124</v>
+        <v>1.492649303679158</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03920225040917669</v>
+        <v>0.03184921955191955</v>
       </c>
       <c r="I5">
-        <v>0.04597782013595841</v>
+        <v>0.03434174704757442</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.036774332880611</v>
+        <v>0.8634654680779974</v>
       </c>
       <c r="L5">
-        <v>0.03802196046635231</v>
+        <v>0.3473256349637381</v>
       </c>
       <c r="M5">
-        <v>1.134383223817025</v>
+        <v>0.303531033416629</v>
       </c>
       <c r="N5">
-        <v>0.1782476415577321</v>
+        <v>0.03407337064794191</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.07691619049973</v>
       </c>
       <c r="P5">
-        <v>1.791613300646937</v>
+        <v>0.2009902427341572</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.577798788871895</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.107215419502978</v>
+        <v>0.9831256288353529</v>
       </c>
       <c r="C6">
-        <v>0.1288078331569125</v>
+        <v>0.1528238895407839</v>
       </c>
       <c r="D6">
-        <v>0.009909304392152762</v>
+        <v>0.01399911602937109</v>
       </c>
       <c r="E6">
-        <v>0.01671414186598419</v>
+        <v>0.01731167920527632</v>
       </c>
       <c r="F6">
-        <v>1.701251531117833</v>
+        <v>1.487986865442039</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03951254847462526</v>
+        <v>0.03210725943346415</v>
       </c>
       <c r="I6">
-        <v>0.04646387144519881</v>
+        <v>0.03476529650109939</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.033466628446995</v>
+        <v>0.8611493456649555</v>
       </c>
       <c r="L6">
-        <v>0.03779570094355833</v>
+        <v>0.3466008163303584</v>
       </c>
       <c r="M6">
-        <v>1.126267650937422</v>
+        <v>0.3026699454171435</v>
       </c>
       <c r="N6">
-        <v>0.1773643710744466</v>
+        <v>0.03389133807339206</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.069238225809102</v>
       </c>
       <c r="P6">
-        <v>1.790431874643559</v>
+        <v>0.2000049796335333</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.577687257779687</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.156230840457027</v>
+        <v>1.026391372288572</v>
       </c>
       <c r="C7">
-        <v>0.1352492043679803</v>
+        <v>0.1604817981336026</v>
       </c>
       <c r="D7">
-        <v>0.01040117961582965</v>
+        <v>0.01478888841436898</v>
       </c>
       <c r="E7">
-        <v>0.01737520011917226</v>
+        <v>0.01795130747095541</v>
       </c>
       <c r="F7">
-        <v>1.727136766418766</v>
+        <v>1.506520108115126</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03752885374164583</v>
+        <v>0.03045949677464233</v>
       </c>
       <c r="I7">
-        <v>0.04435836549426408</v>
+        <v>0.03318570227824313</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.044842225665434</v>
+        <v>0.8675748238685728</v>
       </c>
       <c r="L7">
-        <v>0.03892951344639783</v>
+        <v>0.3474541936662376</v>
       </c>
       <c r="M7">
-        <v>1.177095567370486</v>
+        <v>0.3056654713366918</v>
       </c>
       <c r="N7">
-        <v>0.1847335949279767</v>
+        <v>0.03479201835645362</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.117424658795784</v>
       </c>
       <c r="P7">
-        <v>1.785862578705967</v>
+        <v>0.2080637733803741</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.568791091614152</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.375670967365494</v>
+        <v>1.219463131046467</v>
       </c>
       <c r="C8">
-        <v>0.163639399875521</v>
+        <v>0.1944112107156855</v>
       </c>
       <c r="D8">
-        <v>0.0124880125286424</v>
+        <v>0.01819724190512062</v>
       </c>
       <c r="E8">
-        <v>0.02031373360522259</v>
+        <v>0.02078763968150099</v>
       </c>
       <c r="F8">
-        <v>1.847170557470236</v>
+        <v>1.593022517975641</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.02962553081250019</v>
+        <v>0.02391036629686516</v>
       </c>
       <c r="I8">
-        <v>0.03570017318572649</v>
+        <v>0.0266261564830419</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.098705393025199</v>
+        <v>0.8987315324269431</v>
       </c>
       <c r="L8">
-        <v>0.04401824311062441</v>
+        <v>0.3518307703975125</v>
       </c>
       <c r="M8">
-        <v>1.403730904928011</v>
+        <v>0.3215561326431207</v>
       </c>
       <c r="N8">
-        <v>0.2170388283012556</v>
+        <v>0.03881974877019445</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.33182035859204</v>
       </c>
       <c r="P8">
-        <v>1.769843287009209</v>
+        <v>0.2434792095220786</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.532910936239851</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.812318324033328</v>
+        <v>1.601104821549484</v>
       </c>
       <c r="C9">
-        <v>0.2208004369562957</v>
+        <v>0.2631184496324295</v>
       </c>
       <c r="D9">
-        <v>0.01650436482037776</v>
+        <v>0.02486014942407877</v>
       </c>
       <c r="E9">
-        <v>0.02617118145356123</v>
+        <v>0.02641187558870861</v>
       </c>
       <c r="F9">
-        <v>2.09600025902246</v>
+        <v>1.773004372502797</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01751685623626686</v>
+        <v>0.01394090265822034</v>
       </c>
       <c r="I9">
-        <v>0.02204108995410081</v>
+        <v>0.01628117798457041</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.211813409176216</v>
+        <v>0.9650332307012448</v>
       </c>
       <c r="L9">
-        <v>0.0541481331918483</v>
+        <v>0.3602653667882905</v>
       </c>
       <c r="M9">
-        <v>1.854930194415374</v>
+        <v>0.361058977335766</v>
       </c>
       <c r="N9">
-        <v>0.2804398989829622</v>
+        <v>0.04677532316136634</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.756888376904413</v>
       </c>
       <c r="P9">
-        <v>1.746716817942016</v>
+        <v>0.3132039731982559</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.469546379243162</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.117910228125936</v>
+        <v>1.867660713169641</v>
       </c>
       <c r="C10">
-        <v>0.2649302266882785</v>
+        <v>0.3156971279044853</v>
       </c>
       <c r="D10">
-        <v>0.01929362667468126</v>
+        <v>0.02948556538244418</v>
       </c>
       <c r="E10">
-        <v>0.02924520799782115</v>
+        <v>0.02931337257461131</v>
       </c>
       <c r="F10">
-        <v>2.251960839857858</v>
+        <v>1.88307321142814</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01144024498977814</v>
+        <v>0.009024910027064514</v>
       </c>
       <c r="I10">
-        <v>0.01496526750667648</v>
+        <v>0.011096591420519</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.27813798085694</v>
+        <v>1.000813458340531</v>
       </c>
       <c r="L10">
-        <v>0.05916514850253307</v>
+        <v>0.3603996941339247</v>
       </c>
       <c r="M10">
-        <v>2.176633949959978</v>
+        <v>0.389107618456201</v>
       </c>
       <c r="N10">
-        <v>0.3178771306069308</v>
+        <v>0.05064584002018258</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.059529939404854</v>
       </c>
       <c r="P10">
-        <v>1.711725443693354</v>
+        <v>0.354623493621915</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.412121389294356</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.127989054581064</v>
+        <v>1.886676500779402</v>
       </c>
       <c r="C11">
-        <v>0.2834251906672876</v>
+        <v>0.3334475729209601</v>
       </c>
       <c r="D11">
-        <v>0.01788171487772416</v>
+        <v>0.02741382038836804</v>
       </c>
       <c r="E11">
-        <v>0.02103398496009579</v>
+        <v>0.02122313892434402</v>
       </c>
       <c r="F11">
-        <v>2.077915312392904</v>
+        <v>1.737260587113681</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02963799900310704</v>
+        <v>0.027331223175036</v>
       </c>
       <c r="I11">
-        <v>0.01408109325941709</v>
+        <v>0.01067186630723693</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.168465094884674</v>
+        <v>0.914712577430052</v>
       </c>
       <c r="L11">
-        <v>0.04559695529248842</v>
+        <v>0.3241899951841916</v>
       </c>
       <c r="M11">
-        <v>2.213322398985952</v>
+        <v>0.3619774417437895</v>
       </c>
       <c r="N11">
-        <v>0.2538735497539761</v>
+        <v>0.04058725386458395</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.100134846401261</v>
       </c>
       <c r="P11">
-        <v>1.552873246967891</v>
+        <v>0.2857781948524689</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.297152405061439</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.076363676681581</v>
+        <v>1.850436120305915</v>
       </c>
       <c r="C12">
-        <v>0.2882692464765455</v>
+        <v>0.3356848401159311</v>
       </c>
       <c r="D12">
-        <v>0.01596592988585854</v>
+        <v>0.0245414627689442</v>
       </c>
       <c r="E12">
-        <v>0.01579952634624959</v>
+        <v>0.01611851899356953</v>
       </c>
       <c r="F12">
-        <v>1.910858874205729</v>
+        <v>1.601524061599179</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06868264560886672</v>
+        <v>0.06631118767857203</v>
       </c>
       <c r="I12">
-        <v>0.0140200320327164</v>
+        <v>0.01059820302836734</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.07152057411826</v>
+        <v>0.8420814717584761</v>
       </c>
       <c r="L12">
-        <v>0.03976422107622524</v>
+        <v>0.2969601518031482</v>
       </c>
       <c r="M12">
-        <v>2.177385175155479</v>
+        <v>0.3353029115108797</v>
       </c>
       <c r="N12">
-        <v>0.1980968171543083</v>
+        <v>0.03765927844945116</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.071489508032869</v>
       </c>
       <c r="P12">
-        <v>1.444634531243281</v>
+        <v>0.2253250280870844</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.226332594956972</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.968934252837641</v>
+        <v>1.764732089379152</v>
       </c>
       <c r="C13">
-        <v>0.2838674411226521</v>
+        <v>0.3271375737342339</v>
       </c>
       <c r="D13">
-        <v>0.01376105986910403</v>
+        <v>0.02115174440279333</v>
       </c>
       <c r="E13">
-        <v>0.01252790613513532</v>
+        <v>0.01298511939480318</v>
       </c>
       <c r="F13">
-        <v>1.731991355426501</v>
+        <v>1.458914230583503</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1254992864192559</v>
+        <v>0.1229086364813412</v>
       </c>
       <c r="I13">
-        <v>0.01505046803154286</v>
+        <v>0.01131343947438257</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.9731992808797116</v>
+        <v>0.7708259642438193</v>
       </c>
       <c r="L13">
-        <v>0.03925218251209106</v>
+        <v>0.2726721197190543</v>
       </c>
       <c r="M13">
-        <v>2.080775194691228</v>
+        <v>0.3060960209723689</v>
       </c>
       <c r="N13">
-        <v>0.1464039571152114</v>
+        <v>0.03971485501503658</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.985353989116504</v>
       </c>
       <c r="P13">
-        <v>1.3622803378708</v>
+        <v>0.1688659980540521</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.179771432519175</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.868085144694277</v>
+        <v>1.681843382230142</v>
       </c>
       <c r="C14">
-        <v>0.2768508815012467</v>
+        <v>0.3165476954864914</v>
       </c>
       <c r="D14">
-        <v>0.01214418800635642</v>
+        <v>0.01862750831563176</v>
       </c>
       <c r="E14">
-        <v>0.01144850281809151</v>
+        <v>0.01200101916606433</v>
       </c>
       <c r="F14">
-        <v>1.601967169957675</v>
+        <v>1.356140952112426</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.175919456451112</v>
+        <v>0.1730998945808579</v>
       </c>
       <c r="I14">
-        <v>0.01641441266577104</v>
+        <v>0.01232130948338561</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.9039483029887663</v>
+        <v>0.7215125761541117</v>
       </c>
       <c r="L14">
-        <v>0.0421320998352801</v>
+        <v>0.2566985669449906</v>
       </c>
       <c r="M14">
-        <v>1.98570228529519</v>
+        <v>0.2847837819124521</v>
       </c>
       <c r="N14">
-        <v>0.1134145825844612</v>
+        <v>0.04416257033334858</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.898975288863312</v>
       </c>
       <c r="P14">
-        <v>1.317312322805705</v>
+        <v>0.132587077830685</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.158646266039803</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.830661167974853</v>
+        <v>1.650195024794698</v>
       </c>
       <c r="C15">
-        <v>0.273502924520983</v>
+        <v>0.3120324445894767</v>
       </c>
       <c r="D15">
-        <v>0.01172363467770765</v>
+        <v>0.01794497688112173</v>
       </c>
       <c r="E15">
-        <v>0.0113016329613671</v>
+        <v>0.01187917218865331</v>
       </c>
       <c r="F15">
-        <v>1.565848264240756</v>
+        <v>1.32796806301026</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1889306481931214</v>
+        <v>0.1860084438755507</v>
       </c>
       <c r="I15">
-        <v>0.01716431624305503</v>
+        <v>0.01292917915964686</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.8853311319621398</v>
+        <v>0.7085912220922665</v>
       </c>
       <c r="L15">
-        <v>0.04312909676691845</v>
+        <v>0.2528280567806718</v>
       </c>
       <c r="M15">
-        <v>1.949341114289183</v>
+        <v>0.2787737128806427</v>
       </c>
       <c r="N15">
-        <v>0.1055391829910377</v>
+        <v>0.04549501306056669</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.865408582317684</v>
       </c>
       <c r="P15">
-        <v>1.309457503608844</v>
+        <v>0.1238738525175904</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.156790787566047</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.721522952669119</v>
+        <v>1.553008323472142</v>
       </c>
       <c r="C16">
-        <v>0.2555515707691427</v>
+        <v>0.2913283731559488</v>
       </c>
       <c r="D16">
-        <v>0.01108905239987124</v>
+        <v>0.01683858090474288</v>
       </c>
       <c r="E16">
-        <v>0.01074917729755898</v>
+        <v>0.01135211167728489</v>
       </c>
       <c r="F16">
-        <v>1.535082265211912</v>
+        <v>1.308393313443347</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1787284082326863</v>
+        <v>0.175330497614965</v>
       </c>
       <c r="I16">
-        <v>0.0200986179495164</v>
+        <v>0.01515537843815107</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.8761888234805184</v>
+        <v>0.7062622150660545</v>
       </c>
       <c r="L16">
-        <v>0.04108457315571101</v>
+        <v>0.255346968288368</v>
       </c>
       <c r="M16">
-        <v>1.831312822000626</v>
+        <v>0.273497422595927</v>
       </c>
       <c r="N16">
-        <v>0.1017570351958739</v>
+        <v>0.0431804143935075</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.753251132374118</v>
       </c>
       <c r="P16">
-        <v>1.33815018347412</v>
+        <v>0.119557626380761</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.186402300081639</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.690954875733468</v>
+        <v>1.522197211644681</v>
       </c>
       <c r="C17">
-        <v>0.245638892057741</v>
+        <v>0.2812147371679714</v>
       </c>
       <c r="D17">
-        <v>0.01145330538350464</v>
+        <v>0.01730719007466064</v>
       </c>
       <c r="E17">
-        <v>0.01067066009207085</v>
+        <v>0.01124754407345269</v>
       </c>
       <c r="F17">
-        <v>1.579465854876659</v>
+        <v>1.347341406208685</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1423597084123429</v>
+        <v>0.1387138221860909</v>
       </c>
       <c r="I17">
-        <v>0.02167982803224788</v>
+        <v>0.01638049089370064</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.9052369684946768</v>
+        <v>0.7303101801680256</v>
       </c>
       <c r="L17">
-        <v>0.03739424795488233</v>
+        <v>0.2660237770099165</v>
       </c>
       <c r="M17">
-        <v>1.791151981194929</v>
+        <v>0.2803400383849457</v>
       </c>
       <c r="N17">
-        <v>0.1155055562369682</v>
+        <v>0.03853099687156991</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.713026370577523</v>
       </c>
       <c r="P17">
-        <v>1.383093869322238</v>
+        <v>0.1345745389206527</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.220096876146133</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.727058201007424</v>
+        <v>1.547309876969621</v>
       </c>
       <c r="C18">
-        <v>0.2406887062597036</v>
+        <v>0.2781582157179514</v>
       </c>
       <c r="D18">
-        <v>0.01266966193603025</v>
+        <v>0.01913843960858586</v>
       </c>
       <c r="E18">
-        <v>0.0121343048258038</v>
+        <v>0.0126344861817298</v>
       </c>
       <c r="F18">
-        <v>1.700229558294225</v>
+        <v>1.44660546838837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08975867955028605</v>
+        <v>0.08609182752546474</v>
       </c>
       <c r="I18">
-        <v>0.02171991757743097</v>
+        <v>0.016328406292903</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.9752743147779697</v>
+        <v>0.7835884591174036</v>
       </c>
       <c r="L18">
-        <v>0.0349907636967921</v>
+        <v>0.2866498492158378</v>
       </c>
       <c r="M18">
-        <v>1.814172851285576</v>
+        <v>0.29936346868584</v>
       </c>
       <c r="N18">
-        <v>0.1492495368641258</v>
+        <v>0.03431496126184275</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.730840705113735</v>
       </c>
       <c r="P18">
-        <v>1.45560996735513</v>
+        <v>0.1714278785439802</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.267464846663092</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.808041333706626</v>
+        <v>1.609893874851906</v>
       </c>
       <c r="C19">
-        <v>0.2413773104529753</v>
+        <v>0.2822902114240549</v>
       </c>
       <c r="D19">
-        <v>0.0147738125124306</v>
+        <v>0.02230057438387689</v>
       </c>
       <c r="E19">
-        <v>0.01643917159654151</v>
+        <v>0.01681819609568347</v>
       </c>
       <c r="F19">
-        <v>1.871632022361894</v>
+        <v>1.584897574119978</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04343775887678447</v>
+        <v>0.03997248731116088</v>
       </c>
       <c r="I19">
-        <v>0.02110159338484685</v>
+        <v>0.01595534285197964</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.071680132105087</v>
+        <v>0.8548966778114391</v>
       </c>
       <c r="L19">
-        <v>0.03843464188551771</v>
+        <v>0.3132365044935383</v>
       </c>
       <c r="M19">
-        <v>1.883079436357349</v>
+        <v>0.3260864636024081</v>
       </c>
       <c r="N19">
-        <v>0.2027615438338586</v>
+        <v>0.03517150918853318</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.79094801847441</v>
       </c>
       <c r="P19">
-        <v>1.550096193818725</v>
+        <v>0.2295755455328106</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.326579892951067</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.025581619229058</v>
+        <v>1.787113260391664</v>
       </c>
       <c r="C20">
-        <v>0.2554330850385611</v>
+        <v>0.3040230112028439</v>
       </c>
       <c r="D20">
-        <v>0.01894499698763852</v>
+        <v>0.02871274511664978</v>
       </c>
       <c r="E20">
-        <v>0.02833074169189764</v>
+        <v>0.02844981269008962</v>
       </c>
       <c r="F20">
-        <v>2.194010595736501</v>
+        <v>1.83980885979571</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.01294057834753781</v>
+        <v>0.01023063401821434</v>
       </c>
       <c r="I20">
-        <v>0.01765399045607374</v>
+        <v>0.01345569646755251</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>1.24872419401224</v>
+        <v>0.9818033500808667</v>
       </c>
       <c r="L20">
-        <v>0.05731771387989681</v>
+        <v>0.3569371795907159</v>
       </c>
       <c r="M20">
-        <v>2.085730519979506</v>
+        <v>0.3777917668762285</v>
       </c>
       <c r="N20">
-        <v>0.3088256775380103</v>
+        <v>0.04920528240499422</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.974253365736644</v>
       </c>
       <c r="P20">
-        <v>1.708366665721499</v>
+        <v>0.3444751109812216</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.418324664928882</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.28465856919064</v>
+        <v>2.01065147794651</v>
       </c>
       <c r="C21">
-        <v>0.2902064326524396</v>
+        <v>0.346259346930168</v>
       </c>
       <c r="D21">
-        <v>0.0215749963925802</v>
+        <v>0.03303495092085029</v>
       </c>
       <c r="E21">
-        <v>0.03275511492897287</v>
+        <v>0.03269518388487569</v>
       </c>
       <c r="F21">
-        <v>2.361635021534994</v>
+        <v>1.96260127405688</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.008357374848176669</v>
+        <v>0.006486417929566723</v>
       </c>
       <c r="I21">
-        <v>0.01263078580008425</v>
+        <v>0.009751296531312903</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.32701140152048</v>
+        <v>1.029349447713621</v>
       </c>
       <c r="L21">
-        <v>0.06492393139265218</v>
+        <v>0.3639827438139847</v>
       </c>
       <c r="M21">
-        <v>2.354112619609481</v>
+        <v>0.408268495347663</v>
       </c>
       <c r="N21">
-        <v>0.3530075209024659</v>
+        <v>0.05516392363876221</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.22517880899693</v>
       </c>
       <c r="P21">
-        <v>1.710970022660732</v>
+        <v>0.3929720396801173</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.393566625929729</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.452046064317472</v>
+        <v>2.155357723379836</v>
       </c>
       <c r="C22">
-        <v>0.3123447728605697</v>
+        <v>0.3730592017687115</v>
       </c>
       <c r="D22">
-        <v>0.02297609354319974</v>
+        <v>0.035433525623354</v>
       </c>
       <c r="E22">
-        <v>0.03503095161428504</v>
+        <v>0.03485744552726366</v>
       </c>
       <c r="F22">
-        <v>2.464448669573159</v>
+        <v>2.037645451565155</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006080525383864832</v>
+        <v>0.004656213363415929</v>
       </c>
       <c r="I22">
-        <v>0.009620306456813665</v>
+        <v>0.007404628186541196</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.37509945147238</v>
+        <v>1.058390848696924</v>
       </c>
       <c r="L22">
-        <v>0.0689062920695882</v>
+        <v>0.3674941405105656</v>
       </c>
       <c r="M22">
-        <v>2.526703365179088</v>
+        <v>0.4282529727115403</v>
       </c>
       <c r="N22">
-        <v>0.3764541468319891</v>
+        <v>0.05825979366337819</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.386554946987474</v>
       </c>
       <c r="P22">
-        <v>1.709101612830082</v>
+        <v>0.4188653427502231</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.375516585201993</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.367039081108032</v>
+        <v>2.081996944275716</v>
       </c>
       <c r="C23">
-        <v>0.2996154182810926</v>
+        <v>0.3577934246645498</v>
       </c>
       <c r="D23">
-        <v>0.02206960201620944</v>
+        <v>0.03396667576671319</v>
       </c>
       <c r="E23">
-        <v>0.03383115380228929</v>
+        <v>0.03371762734578532</v>
       </c>
       <c r="F23">
-        <v>2.415395388914519</v>
+        <v>2.002537620709774</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.007228799707795941</v>
+        <v>0.005577632323369941</v>
       </c>
       <c r="I23">
-        <v>0.01080396476488676</v>
+        <v>0.008190793703955812</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.353682393281602</v>
+        <v>1.046313696120521</v>
       </c>
       <c r="L23">
-        <v>0.06694548631842423</v>
+        <v>0.3668411792491852</v>
       </c>
       <c r="M23">
-        <v>2.436657790839831</v>
+        <v>0.4188851392796025</v>
       </c>
       <c r="N23">
-        <v>0.3634478184009282</v>
+        <v>0.05673895316915889</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.302345169224878</v>
       </c>
       <c r="P23">
-        <v>1.714496970069732</v>
+        <v>0.4045557800374411</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.388193612956599</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.039133296664545</v>
+        <v>1.798108799753976</v>
       </c>
       <c r="C24">
-        <v>0.2538423049442144</v>
+        <v>0.3026801934951777</v>
       </c>
       <c r="D24">
-        <v>0.01893679420018302</v>
+        <v>0.02877812184635786</v>
       </c>
       <c r="E24">
-        <v>0.02931829396331054</v>
+        <v>0.02942015397534092</v>
       </c>
       <c r="F24">
-        <v>2.222428665605221</v>
+        <v>1.863165694942694</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01262687302156906</v>
+        <v>0.00994753124634784</v>
       </c>
       <c r="I24">
-        <v>0.0169895756796441</v>
+        <v>0.01272168369380289</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>1.266556525881597</v>
+        <v>0.9955045230166277</v>
       </c>
       <c r="L24">
-        <v>0.05930807586958053</v>
+        <v>0.3620829926874407</v>
       </c>
       <c r="M24">
-        <v>2.094339273080948</v>
+        <v>0.3828862492270844</v>
       </c>
       <c r="N24">
-        <v>0.3152941330775292</v>
+        <v>0.05079769929917788</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.981735040235606</v>
       </c>
       <c r="P24">
-        <v>1.728656293967731</v>
+        <v>0.3515028814894947</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.432152943026502</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.687546825202332</v>
+        <v>1.492237996688033</v>
       </c>
       <c r="C25">
-        <v>0.2063005729518324</v>
+        <v>0.2454654631268909</v>
       </c>
       <c r="D25">
-        <v>0.01563286226913618</v>
+        <v>0.02330069992836314</v>
       </c>
       <c r="E25">
-        <v>0.02454906363640319</v>
+        <v>0.024858430417801</v>
       </c>
       <c r="F25">
-        <v>2.019048859686478</v>
+        <v>1.716208289658638</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02044867182606303</v>
+        <v>0.01634574875589712</v>
       </c>
       <c r="I25">
-        <v>0.0258816029760256</v>
+        <v>0.01937697478470035</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.174503206047511</v>
+        <v>0.9417357239905044</v>
       </c>
       <c r="L25">
-        <v>0.05115948337919463</v>
+        <v>0.356185834403945</v>
       </c>
       <c r="M25">
-        <v>1.729115991458286</v>
+        <v>0.3476956407316081</v>
       </c>
       <c r="N25">
-        <v>0.263905625100989</v>
+        <v>0.04442963155721635</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.638627791440882</v>
       </c>
       <c r="P25">
-        <v>1.745837507148366</v>
+        <v>0.2949276995304473</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.481443611737426</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
